--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aileen/workspace/Python3/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6ADA81-D162-7B40-9DB1-D2194986E1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D0C32A-CAA5-2245-9516-EBFB05917594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15780" windowHeight="18000" activeTab="2" xr2:uid="{A0810453-13E6-1046-861F-71BE4A3A24FB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12400" windowHeight="18000" xr2:uid="{A0810453-13E6-1046-861F-71BE4A3A24FB}"/>
   </bookViews>
   <sheets>
     <sheet name="机器学习" sheetId="3" r:id="rId1"/>
@@ -1603,14 +1603,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">对比| PCA|LDA
-类型| 无监督 | 有监督
-思想| 最大投影方差，最小重构距离| 类内小，类间大
-目的|去除掉原始数据中冗余的维度|寻找一个维度，使得原始数据在该维度上投影后不同类别的数据尽可能分离开来
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>设计模式六大原则</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1719,6 +1711,15 @@
 适用于| 离散变量  | 离散变量  | 连续变量 | 离散/连续变量
 定义  |  给出了所有取值及其对应的概率 | 每个取值发生的概率的函数表达| 变量落在某值xi邻域内（或者某个区间内）的概率【变化】快慢，概率密度【函数下面的面积】才是概率   |  给出取值【小于】某个值的概率，是概率的累加F(xi)=P(x&lt;xi) ，对离散取和sum对连续就是取积分∫
 例子 | （表格形式）| P(x)（x=x1，x2，x3，……）| 高斯分布的钟形曲线f(x) | 高斯分布的S形曲线Φ(x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">对比| PCA|LDA
+--|--|--
+类型| 无监督 | 有监督
+思想| 最大投影方差，最小重构距离| 类内小，类间大
+目的|去除掉原始数据中冗余的维度|寻找一个维度，使得原始数据在该维度上投影后不同类别的数据尽可能分离开来
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2321,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4778FA9-EECD-D14E-A1D7-3A5640976DFD}">
   <dimension ref="A1:C352"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2359,7 +2360,7 @@
         <v>231</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="15">
         <v>2</v>
@@ -2370,7 +2371,7 @@
         <v>232</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="15">
         <v>2</v>
@@ -2381,7 +2382,7 @@
         <v>233</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="15">
         <v>2</v>
@@ -2403,7 +2404,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" s="15">
         <v>2</v>
@@ -2425,7 +2426,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" s="15">
         <v>2</v>
@@ -2480,7 +2481,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
@@ -3105,7 +3106,7 @@
         <v>130</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C71" s="15">
         <v>2</v>
@@ -3149,7 +3150,7 @@
         <v>139</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C75" s="15">
         <v>2</v>
@@ -3650,12 +3651,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="136">
+    <row r="121" spans="1:3" ht="153">
       <c r="A121" s="13" t="s">
         <v>271</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C121" s="15">
         <v>2</v>
@@ -3721,7 +3722,7 @@
         <v>264</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C127" s="15">
         <v>2</v>
@@ -4512,7 +4513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9217B236-0E22-A34D-8588-FC6FAB160020}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
@@ -4612,7 +4613,7 @@
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="109" thickBot="1">
+    <row r="1" spans="1:3" ht="64" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4625,10 +4626,10 @@
     </row>
     <row r="2" spans="1:3" ht="103" thickTop="1">
       <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aileen/workspace/Python3/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D0C32A-CAA5-2245-9516-EBFB05917594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F8C77-D5AA-1A45-85A4-798995A91D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12400" windowHeight="18000" xr2:uid="{A0810453-13E6-1046-861F-71BE4A3A24FB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12400" windowHeight="17540" activeTab="3" xr2:uid="{A0810453-13E6-1046-861F-71BE4A3A24FB}"/>
   </bookViews>
   <sheets>
     <sheet name="机器学习" sheetId="3" r:id="rId1"/>
     <sheet name="深度学习" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
-    <sheet name="面试题" sheetId="1" r:id="rId4"/>
-    <sheet name="设计模式" sheetId="5" r:id="rId5"/>
-    <sheet name="刷题" sheetId="2" r:id="rId6"/>
+    <sheet name="面试题" sheetId="1" r:id="rId3"/>
+    <sheet name="设计模式" sheetId="5" r:id="rId4"/>
+    <sheet name="刷题" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1860,7 +1859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,6 +1910,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2322,7 +2324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4778FA9-EECD-D14E-A1D7-3A5640976DFD}">
   <dimension ref="A1:C352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
@@ -4414,7 +4416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D02E064-05ED-E940-A984-8940ED9F88A8}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4510,19 +4512,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9217B236-0E22-A34D-8588-FC6FAB160020}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F538C879-E9DF-BF4A-9D52-D43C68A74FBC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4598,19 +4587,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AF5C38-F866-CC49-B6D0-8C3522F5AB74}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="51.5" customWidth="1"/>
     <col min="2" max="2" width="58.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="64" thickBot="1">
@@ -4620,7 +4609,7 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4630,6 +4619,9 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>273</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4638,7 +4630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C2F47-27CB-094B-A546-5F8AA6324D18}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aileen/workspace/Python3/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F8C77-D5AA-1A45-85A4-798995A91D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7585D753-1C73-AA49-ABAF-642FB497D5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12400" windowHeight="17540" activeTab="3" xr2:uid="{A0810453-13E6-1046-861F-71BE4A3A24FB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A0810453-13E6-1046-861F-71BE4A3A24FB}"/>
   </bookViews>
   <sheets>
     <sheet name="机器学习" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="设计模式" sheetId="5" r:id="rId4"/>
     <sheet name="刷题" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="285">
   <si>
     <t>题目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,40 +153,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>L1：
-+ MSE+L1 = Lasso回归；
-+ 特点：
-    + 从几何角度看（|x1|+|x2|=a）：可以让特征产生稀疏效果，找到主要特征；
-    + 从贝叶斯角度（任何事物/参数都是有概率的）求MAP=MSE+lnP(β)：给参数β赋予【拉普拉斯】先验分布;
-+ 最多只能选出min(n,p)个特征（从KKT条件推出来一个非齐次线性方程组Aβ=b，rank(A)≤min(n,p),若rank(A|β)≠rank(A)方程组无解，所以...）；
-+ 闭式解（包含次梯度）、修改LARS、CD(坐标下降)，PG
-L2：
-+ MSE+L2 = Ridge回归
-+ 特点:
-    + 从几何角度看(x1^2+x^2=a)：不会产生稀疏效果，但从GD公式来看会对权值进行衰减；
-    + 从贝叶斯角度（任何事物/参数都是有概率的）求MAP=MSE+lnP(β)：给参数β赋予【拉普拉斯】先验分布;
-+ 闭式解（X'X+λI)^(-1）X'Y，半正定+对角矩阵--&gt;正定矩阵，可逆，唯一解，可缓解过拟合
-+ 也可直接GD求解，L2相当于限制w权重较小，降低模型复杂度，防止过拟合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 特征过多,需要稀疏性找出主要特征——&gt; L1;
- 样本数少（n远小于p）或样本重复程度高——&gt; L2;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>推导线性回归闭式解</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>推导逻辑回归损失函数、即梯度下降式子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>观测样本x在政府类中出现的概率的比值取对数后是线性的，相当于用线性拟合比率值，所以叫回归</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>为什么LR可以用来做CTR预测？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -195,10 +165,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>逻辑回归本质、激活函数、伯努利过程、对数几率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>写出全概率公式&amp;贝叶斯公式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -207,79 +173,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 线性参数，不能有平方项 Y=wX+ε；
-2. 条件均值必须为0：E[ε|X]=0;
-3. 没有多重共线性(n&gt;p)：Pr[rank(X)=p]=1;
-4. 没有球度误差，如异方差和自相关：Var[ε|X]=σ^2· In；
-5. 可选假设，误差项ε符合正态分布：ε~N(0, σ^2· In)；
-6. 抽样假设，随机的样本观测值。
-[https://cloud.tencent.com/developer/article/1185205](https://cloud.tencent.com/developer/article/1185205)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>极大似然估计 VS 最大后验概率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是分类模型，并常用于二分类。
-+ 本质是：假设数据服从logistic分布(指数族)，然后使用极大似然估计做参数的估计。
-+ Sigmoid 函数就是 Logistic 的分布函数在μ=0，γ=1的特殊形式。
-+ 可看做一次线性拟合+一次sigmoid的非线性变化（降维到(0,1)再做阈值划分）
-+ 伯努利过程（只有发生、不发生2中可能）
-p(y=1 | x,θ) = φ(z)
-p(y=0 | x,θ) = 1-φ(z)
-p(y | x,θ) = φ(z)^y · (1-φ(z))^(1-y) 
-+ 【几率odds】=y/(1-y): x是正例的相对可能性 VS  【对数几率logit】 = ln y/(1-y)=w'x+b
-+ 损失函数=-log MLE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2层并行，梯度下降：w_(t+1)=w_t-η∑(φ(w'xi)-yi)xi
-+ ∑处的并行，不同样本在不同机器上进行计算，计算完再合并
-+ 同一条样本不同特征维度进行拆分，w和xi拆分计算后合并</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指数族分布表达通式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见指数族分布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伯努利分布、高斯分布、泊松分布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>广义线性模型的三大定义</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>指数族分布的性质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 【充分统计量性质】：只需要数据统计量（如均值方差）就够了，原数据可以扔了；
-2. 【共轭性】：后验数据分布与先验参数分布共轭，具有相同的分布形式（分布参数不一定一样）可以容易地求出数据后验分布；
-3. 【最大熵原理】：
- + 无任何已知条件情况下最大熵 &lt;==&gt; 等可能
- + 有已知事实（约束）情况下，最大熵原理==&gt; 指数族分布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 条件概率y|x;w服从指数分布（如线性回归y|x;w~N(w'x,σ^2In)，逻辑回归y|x;w~Bernoulli(φ)）
-2. 求解目标是：在给定x下，求E[T(y)|x]（通常T(y)等于y，即我们希望拟合函数为h(x)=E[y|x] ）
-3. 指数族参数η与x是线性关系：η=w'x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.  广义线性模型（GLM）有满足指数族的设定，而LR设定的伯努利分布的指数族形式自然参数η与概率参数φ构成的关系就是sigmoid形式：φ=sigmoid(η)。
-2. GLM的第三个假设设定了自然参数与样本呈线性关系：η=w'x，所以自然而然可以通过sigmoid(w'x)表示概率，作为激活函数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -296,22 +194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>似然函数取对数之后就是对数损失函数，在逻辑回归设定下，对数损失函数的训练求解参数的速度比较快（写出梯度下降更新式子），更新速度只和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">𝑥𝑖_j，𝑦𝑖相关。和sigmod函数本身的梯度是无关的。这样更新的速度是可以自始至终都比较的稳定。 </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>常见损失函数类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -326,10 +208,6 @@
   </si>
   <si>
     <t>推导+1，-1标签的LR目标函数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用的激活函数是tanh(z)=2*sigmoid(2z)+1，推导自己推…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -342,7 +220,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>1-纯文本
 2-markdown</t>
@@ -350,10 +227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>W=(X'X)^(-1)X'Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>如果有很多的特征高度相关或者说有一个特征重复了100遍，会对LR造成怎样的影响？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -362,24 +235,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 可以把点击作为正向，未点击作为福相，CTR需要得到点击行为的概率，正好和LR的逻辑一致
-2. 实现简单，方便并行计算，计算迭代速度快
-3. 可解释性强（指数分布的最大熵性质），可结合正则化等优化方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>经验风险最小化  VS  结构风险最小化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>经验风险最小化与结构风险最小化是对于损失函数而言的。
-可以说经验风险最小化只侧重训练数据集上的损失降到最低；
-而结构风险最小化是在经验风险最小化的基础上约束模型的复杂度
-(相当于在损失函数上增加了正则项)
-这一点也符合【奥卡姆剃刀原则】：如无必要，勿增实体。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可以，要加l2正则项，和svm类似，加l2正则项可以用核方便处理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -397,11 +256,6 @@
   </si>
   <si>
     <t>正则化是依据什么理论实现模型优化的？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构风险最小化：在经验风险最小化的基础上（也就是训练误差最小化），尽可能采用简单的模型，以此提高泛化预测精度。
-【奥卡姆剃刀原则】：如无必要，勿增实体。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -416,16 +270,6 @@
   </si>
   <si>
     <t>为什么LR需要归一化或取对数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 理论角度:
-  - 梯度下降过程稳定
-  - 使得数据在某类上更服从高斯分布，满足前提假设【这个是必须要答出来的】
-- 工程角度：
-  - 加速收敛，提高计算效率
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -448,10 +292,6 @@
 因为往往实际不能满足LR的两个假设（如果满足，可以看做概率）：
  1. y服从Bernoulli分布（只有分类问题0,1值，经常会选择该假设）
  2. η与x满足线性关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LR  VS  线性回归</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -461,18 +301,6 @@
 用于分类| 用于回归
 都是广义线性回归GLM问题
 都对非线性问题处理能力欠佳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LR  VS  SVM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LR  VS  朴素贝叶斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LR  VS  最大熵模型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -648,19 +476,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">都是分类，都是判别式模型的思路（直接求解P(Y|x;w) ）；
-区别 | LR  |  SVM
---|--|--
-损失函数 | 交叉熵（对数损失）| HingeLoss0-1损失
-拟合数据 | 全量数据拟合 | 支持向量拟合
-前提假设 |  假设y~Bernoulli(x)，x~logistic分布 | 无假设
-优化目标 | 极大似然 | 最大间隔
-负责度|简单、可并行|相对复杂，不适合大规模线性分类
-噪声敏感度| 不敏感|敏感（如果噪声落在支持向量上，会直接影响判别面）
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>常见决策树区别：ID3\C2.5\CART</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -902,26 +717,6 @@
   </si>
   <si>
     <t>GBDT和boostingtree的boosting分别体现在哪里？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果朴素贝叶斯也有在某一类上的数据x满足高斯分布的前提假设，则与LR一致
-区别 | LR |  朴素贝叶斯
---|--|--
-模型类型|判别模型（直接求P(y\|x1,x2,…xp)）|生成模型（求P(x1,x2,…xp,y)）
-假设| 没有明确的特征条件独立假设（但不能共线性）| 要求特征条件独立</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>损失函数一般有四种，平方损失函数，对数损失函数（也叫交叉熵损失/logistic loss），HingeLoss0-1损失函数，绝对值损失函数。
-回归问题：
-1. 平方损失（MSE）：L= 0.5*∑(yi-h(xi))^2
-2. 绝对值损失: L =∑ |yi-h(xi)|
-分类问题
-1. 对数似然损失/交叉熵损失/logistic loss:
-对于 {0,1} ：L = ∑( ln(1+exp(h(xi)))-yi·h(xi) )
-对于 {-1,+1}: L = ∑ln(1+exp(-yi·h(xi)))
-2. 指数损失：L= exp(-y·h(x))</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1347,11 +1142,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>方差：期望值与真实值间的波动程度，稳定性
-偏差：期望值与真实值之间的一直差距，准确性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>模型训练为什么要引入方差和偏差？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1375,12 +1165,6 @@
   </si>
   <si>
     <t>生成模型  VS  判别模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【生成模型】： 求自变量和因变量的联合概率分布P(x,y)，再通过贝叶斯公式：P(y|x) = p(x,y)/p(x)。通俗来讲就是求x分布，算出x属于正负样本的概率P(y+|x)、P(y-|x)，相互对比得到更可能的类别y。
-【判别模型】：直接对建模P(y|x)，得到结果概率。通俗来讲就是通过对x找到一个最合适的公式y=f(x)来得到y或者找到一个划分超平面划分x。
-生成模型可以得到判别模型，反之不成立</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1488,28 +1272,6 @@
     <t xml:space="preserve">        sample_mean = np.mean(x, axis=0)  # x是(batch_size, W*H*C)——&gt;(1,W*H*C)
         sample_var = np.var(x, axis=0)
         out_ = (x - sample_mean) / np.sqrt(sample_var + eps)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LR  VS  高斯判别分析GDA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区别 | LR |GDA
---|--|--
-类型|判别模型|生成模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 特征间尽可能独立（把不独立的特征交叉——&gt;FM）
-2. 离散特征
-  + 连续特征通常没有特别含义，31岁和32岁差别？
-  + 离散特征方便交叉考虑
-  + 在异常值处理上也更加方便
-  + 能使LR满足分布假设
-3. 数据在某种分类C上的特征分布满足指数族分布如：高斯分布、泊松分布
-（这是正负类对数几率满足线性条件的前提）
-实际中很多不满足的数据，就离散化——oneHotEncode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1615,10 +1377,105 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1. 随机森林 = bagging + 决策树（CART）
+2. 随机：特征选择随机+数据采样随机
+划分结点的时候不是从全部d个属性里选最优，
+而是先随机选k（k常取$log_2 d$）个属性，再从中选最优。
+数据采样时是有放回采样
+——【自助采样】，m次未被采样的几率是$p=(1-\frac{1}{m})^m=\frac{1}{e}=0.368$（当m-&gt;∞）
+3. 森林：多决策树组合。
+可分类（输出值投票）可回归（输出值取平均）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是指特征工程中的特征缩放过程。
+1. 归一化（Normalization/Rescaling）
+对数据的【数值范围】进行特定缩放，但不改变其数据分布的一种线性特征变换。
+—— 一般指min-max 归一化：将数值范围缩放到[0,1]；【减min除(max-min)】
+2. 中心化（Mean normalization）
+—— 一般指z-score /mean归一化：将数值范围缩放到0附近，范围[-1,1]；【减mean除(max-min)】
+3. 标准化（Standardization）：
+对数据的【分布】（非分布类型！）的进行转换，使其符合某种分布（比如正态分布，不改变分布类型，不一定是正态分布，原本啥分布就是啥分布），范围：实数集。【减均值除方差】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
++ 离散型变量取某个值xi的概率P(xi)是个确定的值：例如，投一次骰子出现2点的概率是P(2)=1/6。
++ 连续型变量取某个值xi的概率P(xi)=0：因为取任何单个值的概率都等于0（无意义），只能说“取值落在某个区间/邻域内的概率”，即只能说P(a&lt;xi≤b)，而不能说P(xi)。
+【在连续型变量中：概率为0的事件是有可能发生的，概率为1的事件不一定必然发生。如取一自然数5的概率是1/∞-&gt;0，但可能发生】
+对比  |   概率分布（分布律）  |  概率函数P(X)  |  概率密度f(X)  |  概率分布函数F(X)
+--|--|--|--|--
+适用于| 离散变量  | 离散变量  | 连续变量 | 离散/连续变量
+定义  |  给出了所有取值及其对应的概率 | 每个取值发生的概率的函数表达| 变量落在某值xi邻域内（或者某个区间内）的概率【变化】快慢，概率密度【函数下面的面积】才是概率   |  给出取值【小于】某个值的概率，是概率的累加F(xi)=P(x&lt;xi) ，对离散取和sum对连续就是取积分∫
+例子 | （表格形式）| P(x)（x=x1，x2，x3，……）| 高斯分布的钟形曲线f(x) | 高斯分布的S形曲线Φ(x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">对比| PCA|LDA
+--|--|--
+类型| 无监督 | 有监督
+思想| 最大投影方差，最小重构距离| 类内小，类间大
+目的|去除掉原始数据中冗余的维度|寻找一个维度，使得原始数据在该维度上投影后不同类别的数据尽可能分离开来
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方差：期望值与真实值间的波动程度，衡量稳定性
+偏差：期望值与真实值之间的一致性差距，衡量准确性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 可以把点击事件作为正样本，未点击作为负样本，CTR需要得到点击行为的概率，正好和LR的逻辑一致
+2. LR实现简单，方便并行计算，计算迭代速度快
+3. LR可解释性强（指数分布的最大熵性质），可结合正则化等优化方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑回归LR  VS  线性回归</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑回归LR  VS  最大熵模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑回归LR  VS  SVM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑回归LR  VS  朴素贝叶斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑回归LR  VS  高斯判别分析GDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">都是分类，都是判别式模型的思路（直接求解P(Y|x;w) ）；
+区别 | LR  |  SVM
+--|--|--
+损失函数 | 交叉熵（对数损失）| HingeLoss0-1损失
+拟合数据 | 全量数据拟合 | 支持向量拟合
+前提假设 |  假设$y \sim Bernoulli(x)$，$x \sim logistic$分布 | 无假设
+优化目标 | 极大似然 | 最大间隔
+负责度|简单、可并行|相对复杂，不适合大规模线性分类
+噪声敏感度| 不敏感|敏感（如果噪声落在支持向量上，会直接影响判别面）
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果朴素贝叶斯也有在某一类上的数据x满足高斯分布的前提假设，则与LR一致
+区别 | LR |  朴素贝叶斯
+--|--|--
+模型类型|判别模型（直接求$P(y \mid x_1,x_2,…x_p)$）|生成模型（求$P(x_1,x_2,…x_p,y)$）
+条件独立假设| 无（但不能共线性）| 有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>优化监督学习=优化模型的泛化误差，模型的泛化误差可分解为偏差、方差与噪声之和
 ** Err =$\operatorname{bias}^{2}+var+\sigma_{e}$**
 证明如下：
-+ 观测值Y，真实模型f(x)，噪声e满足：**$Y=f(x)+e$**，假设预测模型为$\tilde{f}(x)$。
++ 观测值Y，真实模型f(x)，噪声e满足：**$Y=f(x)+e$**，假设预测模型为$\tilde{f}(x)$，不同的估计参数下会得到很多预测模型。
 + 模型总误差**$Err =$① $Err(f(x),\tilde{f}(x))$ + ②$Err(f(x),Y)$**
 其中：
 ①为真实模型与预测模型误差
@@ -1635,48 +1492,53 @@
   <si>
     <t>模型复杂度过高，对训练数据过拟合（如用高次方程拟合线性数据）
 + 解决方法：
-1. 增加数据——如果加入数据与原数据分布一致，则无效
-2. 减少特征维度——如果减少的维度是共线性维度，则无效
-3. 模型加入正则项（简化模型）——通常有效</t>
+1. 增加数据 
+——&gt; 如果加入数据与原数据分布一致，则无效
+2. 减少特征维度 
+——&gt; 如果减少的维度是共线性维度，则无效
+3. 模型加入正则项（简化模型）
+——&gt;通常有效</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模型过于简单，学不出来，对训练数据欠拟合（如用线性方程学高次数据）
 + 解决方法：
-1. 尝试获得更多特征，如特征交叉、embedding——特征过于稀疏会引发高方差风险
-2. 尝试增加多项式特征，增加模型的非线性变化，提升模型复杂度——多个线性变换=一个线性变换，多个非线性变换不一定=一个多线性变换，所以不一定有效
-3. 减少正则化程度λ——通常有效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 随机森林 = bagging + 决策树（CART）
-2. 随机：特征选择随机+数据采样随机
-划分结点的时候不是从全部d个属性里选最优，
-而是先随机选k（k常取$log_2 d$）个属性，再从中选最优。
-数据采样时是有放回采样
-——【自助采样】，m次未被采样的几率是$p=(1-\frac{1}{m})^m=\frac{1}{e}=0.368$（当m-&gt;∞）
-3. 森林：多决策树组合。
-可分类（输出值投票）可回归（输出值取平均）</t>
+1. 尝试获得更多特征，如特征交叉、embedding;
+ ——&gt; 不一定有效，特征过于稀疏会引发高方差风险
+2. 尝试增加多项式特征，增加模型的非线性变化，提升模型复杂度;
+ ——&gt;不一定有效，因为多个线性变换等于一个线性变换，多个非线性变换不一定等于一个多线性变换
+3. 减少正则化程度λ ;
+——&gt; 通常有效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【生成模型】： 求自变量和因变量的联合概率分布 $P(x,y)$ ，再通过贝叶斯公式求 $ P(y|x) =\frac{p(x,y)}{p(x)}=\frac{p(x|y)p(y)}{p(x)}$。通俗来讲就是求x分布，算出x属于正负样本的概率$P(y_{+}|x)$、$P(y_{-}|x)$，相互对比得到更可能的类别y。
+【判别模型】：直接对建模$P(y|x)$，得到结果概率。通俗来讲就是通过对x构造一个最合适函数$y=f(x)$ 来得到y，或者找到一个划分超平面划分x。
+生成模型可以得到判别模型，反之不成立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$W=(X'X)^{-1}X'Y$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 线性回归是通过一组点来拟合一条线的问题；（问题/任务）
 2. 最小二乘是解决这个问题的优化方法；（方法）
-3. 其目标函数是最小化平方损失函数；$J(\theta)=\frac{1}{m} \sum_{i=1}^{m}\left(h_{\theta}\left(x^{i}\right)-y^{i}\right)^{2}$
+3. 其目标函数是最小化平方损失函数；$J(w)=\frac{1}{m} \sum_{i=1}^{m}\left(h_{w}\left(x^{i}\right)-y^{i}\right)^{2}$
 4. 几何意义：用p维子空间（通过投影）近似表达原本N维空间向量Y；
-5. 概率角度：在假设线性参数$Y=wX+\epsilon$、误差项符合0均值正态分布$\epsilon\sim \mathcal{N}\left(0, \sigma^{2}I_n\right)$下，等同于极大似然估计 $max \prod_{i=1}^{m} p\left(Y \mid X ; w\right)$   （分号表示w是确定性参数，因为此时x已被观测，x由w生成）</t>
+5. 概率角度：在假设线性参数$Y=wX+\varepsilon$、误差项符合0均值正态分布$\varepsilon \sim \mathcal{N}\left(0, \sigma^{2}I_n\right)$下，等同于极大似然估计 $max \prod_{i=1}^{m} p\left(Y \mid X ; w\right)$   （分号表示w是确定性参数，因为此时x已被观测，x由w生成）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>## 均方误差（MSE）：
 1. 是反映估计量t 和被估计量θ的差异性度量；
-2. MSE(t)=E[$(\theta-t)^2$]=t的方差+偏差^2;
+2. $ MSE(t)=E[(\theta-t)^2]=t\text{的方差}+\text{偏差}^2$;
 3. 是对已知模型的参数估计;
 4. 针对无限数量（在线学习）;
 5. 基于概率统计求解
 ## 最小二乘估计(LSE)
 1. 是一种数学优化技术，通过最小化误差平方找寻最佳函数匹配；
-2. 目标函数：min_w ∑(观测量y_i-估计量wx_i)^2；
+2. 目标函数：$\min_w \sum_{i}^{N}(\text{观测值}y_i-\text{估计值}wx_i)^2$；
 3. 是未知模型的估计；若观测值服从指数族且满足轻度条件时，最小二乘估计和【极大似然估计MLE】是相同的；
 4. 针对有限数量（离线学习）
 5. 基于矩阵求解
@@ -1684,40 +1546,260 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>都是指特征工程中的特征缩放过程。
-1. 归一化（Normalization/Rescaling）
-对数据的【数值范围】进行特定缩放，但不改变其数据分布的一种线性特征变换。
-—— 一般指min-max 归一化：将数值范围缩放到[0,1]；【减min除(max-min)】
-2. 中心化（Mean normalization）
-—— 一般指z-score /mean归一化：将数值范围缩放到0附近，范围[-1,1]；【减mean除(max-min)】
-3. 标准化（Standardization）：
-对数据的【分布】（非分布类型！）的进行转换，使其符合某种分布（比如正态分布，不改变分布类型，不一定是正态分布，原本啥分布就是啥分布），范围：实数集。【减均值除方差】</t>
+    <t>小二乘法是解决曲线拟合问题最常用的方法，有以下假设：
+1. 自变量（X）和因变量（y）线性相关
+2. 自变量（X）之间相互独立—— 没有多重共线性：$Pr[rank(X)=p]=1$;
+3. 误差项（ε）之间相互独立
+4. 误差项（ε）呈正态分布，期望为0，方差为定值
+5. 自变量（X）和误差项（ε）之间相互独立
+[最小二乘线性回归的5个假设](https://www.cnblogs.com/HuZihu/p/10142737.html)
+1. 线性参数，不能有平方项 $Y=wX'+\varepsilon$；
+2. 条件均值必须为0：$E[\varepsilon|X]=0$ ;
+3. 没有多重共线性：$Pr[rank(X)=p]=1$;
+4. 没有球度误差，如异方差和自相关：$Var[\varepsilon|X]=\sigma^2  In$；
+5. 可选假设，误差项ε符合正态分布：$\varepsilon \sim N(0, \sigma^2 In)；
+6. 抽样假设，随机的样本观测值。
+[最小二乘法的6个假设](https://cloud.tencent.com/developer/article/1185205)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 条件概率$y|x;w$服从指数分布（如线性回归$y|x;w \sim N(w'x,\sigma^2 In$)，逻辑回归$y|x;w \sim Bernoulli(\phi)$）
+2. 求解目标是：在给定$x$下，求$E[T(y)|x]$（通常$T(y)=y$，即我们希望拟合函数为$h(x)=E[y|x] $）
+3. 指数族参数$\eta$与$x$是线性关系：$\eta=w^{\prime} x$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1：
++ MSE+L1 = Lasso回归；
++ 特点：
+    + 从几何角度看（$|x_1|+|x_2|=a$是个斜方形）：可以让特征产生稀疏效果，找到主要特征；
+    + 从贝叶斯角度（任何事物/参数都是有概率的）求$$MAP=MLE+lnP(\beta)$$   即：
+$$\beta^{*}=\arg\max_{\beta} \ln \left(\prod_{i=1}^{n} p\left(y_{i} \mid x_{i}, \beta\right) p(\beta)\right) =\arg \max_{\beta} \sum_{i=1}^{n}\left(\ln p\left(y_{i} \mid x_{i}, \beta\right)+\ln p(\beta)\right)$$ L1范数相当于给参数β赋予【拉普拉斯】先验分布;
++ 最多只能选出$\min(n,p)$个特征（从KKT条件推出来一个非齐次线性方程组$A \beta=b，rank(A)≤\min(n,p)$,若rank(A|β)≠rank(A)方程组无解，所以...）；
++ 闭式解（包含次梯度）、修改LARS、CD(坐标下降)，PG
+L2：
++ MSE+L2 = Ridge回归
++ 特点:
+    + 从几何角度看($x_1^2+x_2^2=a$是个圆形)：不会产生稀疏效果，但从GD公式来看会对权值进行衰减；
+    + 从贝叶斯角度（任何事物/参数都是有概率的）求$MAP=MSE+lnP(\beta)$：给参数β赋予【高斯】先验分布;
++ 闭式解$(X'X+\lambda I)^{-1}X'Y$，半正定+对角矩阵--&gt;正定矩阵：可逆。可求得唯一解，可缓解过拟合；
++ 也可直接GD求解，L2相当于限制w权重较小，降低模型复杂度，防止过拟合；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极大似然估计MLE VS 最大后验概率MAP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 特征过多,需要稀疏性找出主要特征 ——&gt; L1;
+ 样本数少（$n&lt;&lt;p$）或样本重复程度高 ——&gt; L2;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 频率派认为模型参数是个定值，希望通过类似解方程组的方式从数据中求得该未知数。这就是频率学派使用的参数估计方法-极大似然估计（MLE）
+$$\beta^{*}=\arg\max_{\beta} \ln \left(\prod_{i=1}^{n} p\left(y_{i} \mid x_{i}, \beta\right) \right)=\arg \max_{\beta} \sum_{i=1}^{n}\left(\ln p\left(y_{i} \mid x_{i}, \beta\right)\right)$$
 2. 贝叶斯派认为模型参数是个变量（源自某种潜在分布），希望从数据中推知该分布。对于数据的观测方式不同或者假设不同，那么推知的该参数也会因此而存在差异。这就是贝叶斯派视角下用来估计参数的常用方法-最大后验概率估计（MAP）
-把先验假设去掉，或者假设先验满足均匀分布的话，那MAP和MLE就如出一辙了。</t>
+$$\beta^{*}=\arg\max_{\beta} \ln \left(\prod_{i=1}^{n} p\left(y_{i} \mid x_{i}, \beta\right) p(\beta)\right) $$
+把先验假设$p(\beta)$去掉，或者假设先验满足均匀分布的话，那MAP和MLE就如出一辙了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验风险最小化与结构风险最小化是对于损失函数而言的。
++ 经验风险最小化只侧重训练数据集上的损失降到最低；
++ 结构风险最小化是在经验风险最小化的基础上约束模型的复杂度(相当于在损失函数上增加了正则项)，这一点也符合【奥卡姆剃刀原则】：如无必要，勿增实体。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
-+ 离散型变量取某个值xi的概率P(xi)是个确定的值：例如，投一次骰子出现2点的概率是P(2)=1/6。
-+ 连续型变量取某个值xi的概率P(xi)=0：因为取任何单个值的概率都等于0（无意义），只能说“取值落在某个区间/邻域内的概率”，即只能说P(a&lt;xi≤b)，而不能说P(xi)。
-【在连续型变量中：概率为0的事件是有可能发生的，概率为1的事件不一定必然发生。如取一自然数5的概率是1/∞-&gt;0，但可能发生】
-对比  |   概率分布（分布律）  |  概率函数P(X)  |  概率密度f(X)  |  概率分布函数F(X)
---|--|--|--|--
-适用于| 离散变量  | 离散变量  | 连续变量 | 离散/连续变量
-定义  |  给出了所有取值及其对应的概率 | 每个取值发生的概率的函数表达| 变量落在某值xi邻域内（或者某个区间内）的概率【变化】快慢，概率密度【函数下面的面积】才是概率   |  给出取值【小于】某个值的概率，是概率的累加F(xi)=P(x&lt;xi) ，对离散取和sum对连续就是取积分∫
-例子 | （表格形式）| P(x)（x=x1，x2，x3，……）| 高斯分布的钟形曲线f(x) | 高斯分布的S形曲线Φ(x)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">对比| PCA|LDA
++ 结构风险最小化：在经验风险最小化的基础上（也就是训练误差最小化），尽可能采用简单的模型，以此提高泛化预测精度。
++ 【奥卡姆剃刀原则】：如无必要，勿增实体。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是分类模型，并常用于二分类。
++ 本质是：假设数据服从logistic分布(指数族)，然后使用极大似然估计做参数的估计。
++ Sigmoid 函数就是 Logistic 的分布函数$$
+F(x)=P(X \leq x)=\frac{1}{1+e^{-(x-\mu) / \gamma}}
+$$在μ=0，γ=1的特殊形式。
++ 可看做一次线性拟合  **+**  一次sigmoid的非线性变化（降维到(0,1)再做阈值划分）
++ 伯努利过程（只有发生、不发生2中可能）
+$p(y=1 | x,\theta) = \phi(z)$
+$p(y=0 | x,\theta) = 1-\phi(z)$
+$p(y | x,\theta) = \phi (z)^y (1-\phi (z))^{1-y} $
++ 【几率odds】$=\frac{y}{(1-y)}$: x是正例的相对可能性 VS  【对数几率logit】$ = ln \frac{y}{1-y}=w'x+b$
++ 损失函数=-log MLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+区别 | LR | GDA
 --|--|--
-类型| 无监督 | 有监督
-思想| 最大投影方差，最小重构距离| 类内小，类间大
-目的|去除掉原始数据中冗余的维度|寻找一个维度，使得原始数据在该维度上投影后不同类别的数据尽可能分离开来
+类型 | 判别模型 | 生成模型
+前提假设 | $y \sim \operatorname{Bernoulli}(\phi)$，$x \sim logistic$ 分布 | $y \sim \operatorname{Bernoulli}(\phi)$，不同类别的x分别服从多元高斯分布$P(x \mid y=c) \sim N\left(\mu_{c}, \Sigma\right)$
+参数估计方法 | MLE | MAP
+![](https://tva1.sinaimg.cn/large/007S8ZIlgy1gh93r3fbxmj30kg0e2gmx.jpg)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推导逻辑回归（LR）损失函数、即梯度下降式子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑回归（LR）本质、激活函数、伯努利过程、对数几率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观测样本x在正负类中出现的概率的比值取对数后是线性的，相当于用线性拟合比率值，所以叫回归</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">### 构造预测函数：
+$$
+h_{\theta}(x)=\phi\left(\theta^{T} x\right)=\frac{1}{1+e^{-\theta^{T} x}}
+$$
+### 损失函数：
+1. 极大似然估计MLE
+$$
+\begin{aligned}
+L(\theta) &amp;=\prod_{i=1}^{m} p\left(y^{(i)} \mid x^{(i)} ; \theta\right) \\
+&amp;=\prod_{i=1}^{m}\left(h_{\theta}\left(x^{(i)}\right)\right)^{y^{(i)}}\left(1-h_{\theta}\left(x^{(i)}\right)\right)^{1-y^{(i)}}
+\end{aligned}
+$$
+取对数
+$$
+\begin{aligned}
+\ell(\theta) &amp;=\log L(\theta) \\
+&amp;=\sum_{i=1}^{m} y^{(i)} \log h\left(x^{(i)}\right)+\left(1-y^{(i)}\right) \log \left(1-h\left(x^{(i)}\right)\right)
+\end{aligned}
+$$
+目标函数：
+$$
+J(\theta)=- l(\theta)
+$$
+### 求梯度
+$$
+\begin{array}{l}
+\frac{\partial}{\partial{\theta_{j}}} J(\theta)&amp;=- \sum_{i=1}^{m}\left(y^{(i)} \frac{1}{h_{\theta}\left(x^{(i)}\right)}-\left(1-y^{(i)}\right) \frac{1}{1-h_{\theta}\left(x^{(i)}\right)} \right) \frac{\partial}{\partial{\theta_{j}}} h_{\theta}\left(x^{(i)}\right) \\
+&amp;=-\sum_{i=1}^{m}\left(y^{(i)}-h_{\theta}\left(x^{(i)}\right)\right) x_{j}^{(i)}
+\end{array}
+$$
+### 梯度下降更新公式
+$$
+\theta_{j}:=\theta_{j}-\alpha \frac{\partial}{\partial{\theta_{j}}} J(\theta)=\theta_{j}+\alpha \sum_{i=1}^{m}\left(y^{(i)}-h_{\theta}\left(x^{(i)}\right)\right) x_{j}^{(i)}
+$$
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2层并行，梯度下降：$$ \theta_{j+1}=\theta_{j}+\alpha \sum_{i=1}^{m}\left(y^{(i)}-h_{\theta}\left(x^{(i)}\right)\right) x_{j}^{(i)}$$
++ ∑处的并行，不同样本在不同机器上进行计算，计算完再合并
++ 同一条样本不同特征维度$x^{(i)}$进行拆分，$\theta$和$x^{(i)}$拆分计算后合并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#### 1. 特征间尽可能独立（把不独立的特征交叉——&gt;FM）
+#### 2. 离散特征
++ 连续特征通常没有特别含义，31岁和32岁差别？
++ 离散特征方便交叉考虑
++ 在异常值处理上也更加方便
++ 能使LR满足分布假设
+#### 3. 数据在某种分类C上的特征分布满足指数族分布如：高斯分布、泊松分布
+（这是正负类对数几率满足线性条件的前提）
+实际中很多不满足的数据，就离散化——oneHotEncode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>### 全概率公式
+&lt;img src="https://tva1.sinaimg.cn/large/007S8ZIlgy1gh9u7bvxq7j30hw0agwfg.jpg" alt="qgl.jpg" width="400" height="240" align="bottom" /&gt;
+$$
+P(A)=\sum_{i=1}^{n} P\left(B_{i}\right) P\left(A \mid B_{i}\right)
+$$
++ 全概率公式的意义在于：当直接计算P(A)较为困难，而$P(Bi)，P(A|B_i)  (i=1,2,...)$的计算较为简单时，可以利用全概率公式计算P(A)。
++ 思想就是：将事件A分解成若干个小事件，通过求每个小事件的概率，然后相加从而求得事件A的概率。
+### 贝叶斯公式
+$$
+P\left(B_{i} \mid A\right)=\frac{P\left(B_{i}\right) P\left(A \mid B_{i}\right)}{\sum_{j=1}^{n} P\left(B_{j}\right) P\left(A \mid B_{j}\right)}
+$$
++ 与全概率公式正好相反，建立在条件概率$P(A|B_i)$已知基础上寻找事件发生的原因（即大事件A已经发生的条件下，分割中的小事件$B_i$在A发生的条件下的概率）
++ 反映当试验产生了结果A之后，再对各种原因概率的新认识，故$P\left(B_{i} \mid A\right)$称后验概率。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  广义线性模型（GLM）有y满足【指数族分布】的设定，LR设定的【伯努利分布】的指数族形式的自然参数$\eta$与概率参数$phi$构成的关系就是sigmoid形式：$\phi=sigmoid(\eta)$。
+2. GLM的第三个假设设定了自然参数与样本呈线性关系：$\eta=w'x$，所以自然而然可以通过$sigmoid(w'x)$表示概率，作为激活函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>似然函数取对数之后就是对数损失函数，在逻辑回归设定下，对数损失函数的训练求解参数的速度比较快$$ \theta_{j+1}=\theta_{j}+\alpha \sum_{i=1}^{m}\left(y^{(i)}-h_{\theta}\left(x^{(i)}\right)\right) x_{j}^{(i)}$$
+更新速度只和$x_j^{(i)}, y^{(i)}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">$相关。和sigmod函数本身的梯度是无关的。这样更新的速度是可以自始至终都比较的稳定。 </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用的激活函数是$tanh(z)=2sigmoid(2z)+1$，推导自己推…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数族分布表达通式，常见指数族分布？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见概率分布、均值方差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>### 指数族分布表达式
+$$P(y \mid \eta)=B(y) \exp \left(\eta^{\prime} T(y)-A(\eta)\right)$$
+$\eta$： 自然参数( parameter )
+$T(y)$： 充分统计量 (sufficient statistics )
+$A(\eta)$： 对数配分函数 (log partition function).
+### 常见指数族分布
+常见指数族分布：高斯分布、伯努利（0-1）分布、二项分布、泊松分布、伽马分布
+分布|伯努利分布|高斯分布
+--|--|--
+表达式|$$\begin{aligned} \mathrm{P}(\mathrm{y} ; \varphi) &amp;=\varphi^{y}(1-\varphi)^{1-y}=\exp \left(\log \varphi^{y}(1-\varphi)^{1-y}\right) \\&amp;=\exp (\mathrm{ylog} \varphi+(1-\mathrm{y}) \log (1-\varphi)) \\&amp;=\exp \left(\mathrm{ylog} \frac{\varphi}{1-\varphi}+\log (1-\varphi)\right) \end{aligned} $$| $$\begin{aligned} \mathrm{N}(\mu, 1)&amp;=\frac{1}{\sqrt{2 \pi}} \exp \left(-\frac{1}{2}(y-\mu)^{2}\right)\\ &amp;=\frac{1}{\sqrt{2 \pi}} \exp \left(-\frac{1}{2} y^{2}-\frac{1}{2} \mu^{2}+\mu y\right) \\ &amp;=\frac{1}{\sqrt{2 \pi}} \exp \left(-\frac{1}{2} y^{2}\right) \exp \left(\mu y-\frac{1}{2} \mu^{2}\right) \end{aligned} $$ 
+$\eta$ | $\eta=\log \frac{\varphi}{1-\varphi} \Rightarrow \varphi=\frac{1}{1+e^{-\eta}}$| $\mu$
+T(y)|y|y
+$A(\eta)$ |$A(\eta)=-\log (1-\varphi)=\log \left(1+e^{\eta}\right)$|$A(\eta)=\frac{1}{2} \mu^{2}$
+$B(y)$ |1 |$B(\mathrm{y})=\frac{1}{\sqrt{2 \pi}} \exp \left(-\frac{1}{2} y^{2}\right)$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;img src="https://tva1.sinaimg.cn/large/007S8ZIlgy1gh9vpfm34kj319m0r2gqu.jpg" alt="cjfb.jpg" width="680" height="400" align="bottom" /&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>损失函数一般有四种，平方损失函数，对数损失函数（也叫交叉熵损失/logistic loss），HingeLoss0-1损失函数，绝对值损失函数。
+### 回归问题：
+1. 平方损失（MSE）：$MSE=\frac{1}{N} \sum_{i=1}^{N}\left(y^{(i)}-f\left(x^{(i)}\right)\right)^{2}$
+2. 绝对值损失: $MAE=\frac{1}{N} \sum_{i=1}^{N}\left|y^{(i)}-f\left(x^{(i)}\right)\right|$
+### 分类问题
+1. 对数似然损失/交叉熵损失/logistic loss:
+标准形式：$L(Y, P(Y \mid X))=-\log P(Y \mid X)$
+对于 {0,1} ：$J(\theta)=-\left[\sum_{i=1}^{m} y^{(i)} \log h_{\theta}\left(x^{(i)}\right)+\left(1-y^{(i)}\right) \log \left(1-h_{\theta}\left(x^{(i)}\right)\right)\right]$
+对于 {-1,+1}: $J(\theta)=\sum_{i=1}^{m} log(1+e^{-y_i w’x_i})$
+2. 指数损失：$L(y,h(x))= exp[-yh(x)]$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 理论角度:
+  - 梯度下降过程稳定
+  - 使得数据在某类上更服从前提假设
+- 工程角度：
+  - 加速收敛，提高计算效率
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1777,7 +1859,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2324,14 +2405,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4778FA9-EECD-D14E-A1D7-3A5640976DFD}">
   <dimension ref="A1:C352"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="73.5" customWidth="1"/>
-    <col min="2" max="2" width="91" customWidth="1"/>
+    <col min="2" max="2" width="98" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2343,15 +2424,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="89" customHeight="1" thickTop="1">
       <c r="A2" s="13" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C2" s="15">
         <v>2</v>
@@ -2359,10 +2440,10 @@
     </row>
     <row r="3" spans="1:3" ht="305" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C3" s="15">
         <v>2</v>
@@ -2370,10 +2451,10 @@
     </row>
     <row r="4" spans="1:3" ht="147" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="C4" s="15">
         <v>2</v>
@@ -2381,10 +2462,10 @@
     </row>
     <row r="5" spans="1:3" ht="147" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="C5" s="15">
         <v>2</v>
@@ -2392,10 +2473,10 @@
     </row>
     <row r="6" spans="1:3" ht="147" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C6" s="15">
         <v>2</v>
@@ -2406,7 +2487,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C7" s="15">
         <v>2</v>
@@ -2414,10 +2495,10 @@
     </row>
     <row r="8" spans="1:3" ht="26">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="C8" s="15">
         <v>2</v>
@@ -2428,29 +2509,29 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C9" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="136">
+    <row r="10" spans="1:3" ht="272">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="C10" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51">
+    <row r="11" spans="1:3" ht="68">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="C11" s="15">
         <v>2</v>
@@ -2461,7 +2542,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="C12" s="15">
         <v>2</v>
@@ -2472,62 +2553,62 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="C13" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="119">
+    <row r="14" spans="1:3" ht="170">
       <c r="A14" s="13" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="85">
+    <row r="15" spans="1:3" ht="68">
       <c r="A15" s="13" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>265</v>
       </c>
       <c r="C15" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="51">
+    <row r="16" spans="1:3" ht="68">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>266</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="187">
+    <row r="17" spans="1:3" ht="221">
       <c r="A17" s="12" t="s">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="C17" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="26">
+    <row r="18" spans="1:3" ht="409" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -2535,10 +2616,10 @@
     </row>
     <row r="19" spans="1:3" ht="26">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="C19" s="15">
         <v>2</v>
@@ -2546,54 +2627,54 @@
     </row>
     <row r="20" spans="1:3" ht="51">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="C20" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="68">
+    <row r="21" spans="1:3" ht="85">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="153">
+    <row r="22" spans="1:3" ht="170">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="C22" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="102">
+    <row r="23" spans="1:3" ht="85">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C23" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="26">
+    <row r="24" spans="1:3" ht="306">
       <c r="A24" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>275</v>
       </c>
       <c r="C24" s="15">
         <v>2</v>
@@ -2601,10 +2682,10 @@
     </row>
     <row r="25" spans="1:3" ht="68">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="C25" s="15">
         <v>2</v>
@@ -2612,10 +2693,10 @@
     </row>
     <row r="26" spans="1:3" ht="51">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C26" s="15">
         <v>2</v>
@@ -2623,21 +2704,21 @@
     </row>
     <row r="27" spans="1:3" ht="68">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C27" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="51">
+    <row r="28" spans="1:3" ht="68">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="C28" s="15">
         <v>2</v>
@@ -2645,10 +2726,10 @@
     </row>
     <row r="29" spans="1:3" ht="34">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C29" s="15">
         <v>2</v>
@@ -2656,10 +2737,10 @@
     </row>
     <row r="30" spans="1:3" ht="26">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="C30" s="15">
         <v>2</v>
@@ -2667,21 +2748,21 @@
     </row>
     <row r="31" spans="1:3" ht="102">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C31" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="68">
+    <row r="32" spans="1:3" ht="51">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C32" s="15">
         <v>2</v>
@@ -2689,54 +2770,52 @@
     </row>
     <row r="33" spans="1:3" ht="26">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C33" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="26">
+    <row r="34" spans="1:3" ht="356">
       <c r="A34" s="7" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="C34" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="26">
+    <row r="35" spans="1:3" ht="356">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="C35" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="102">
+    <row r="36" spans="1:3" ht="51">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="204">
+        <v>282</v>
+      </c>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" ht="238">
       <c r="A37" s="13" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="C37" s="15">
         <v>2</v>
@@ -2744,10 +2823,10 @@
     </row>
     <row r="38" spans="1:3" ht="51">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C38" s="15">
         <v>2</v>
@@ -2755,10 +2834,10 @@
     </row>
     <row r="39" spans="1:3" ht="119">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="C39" s="15">
         <v>2</v>
@@ -2766,10 +2845,10 @@
     </row>
     <row r="40" spans="1:3" ht="119">
       <c r="A40" s="13" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C40" s="15">
         <v>2</v>
@@ -2777,10 +2856,10 @@
     </row>
     <row r="41" spans="1:3" ht="51">
       <c r="A41" s="13" t="s">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C41" s="15">
         <v>2</v>
@@ -2788,10 +2867,10 @@
     </row>
     <row r="42" spans="1:3" ht="187">
       <c r="A42" s="13" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="C42" s="15">
         <v>2</v>
@@ -2799,30 +2878,30 @@
     </row>
     <row r="43" spans="1:3" ht="102">
       <c r="A43" s="13" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="C43" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="51">
+    <row r="44" spans="1:3" ht="409" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:3" ht="153">
       <c r="A45" s="12" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C45" s="15">
         <v>2</v>
@@ -2830,10 +2909,10 @@
     </row>
     <row r="46" spans="1:3" ht="26">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C46" s="15">
         <v>2</v>
@@ -2841,10 +2920,10 @@
     </row>
     <row r="47" spans="1:3" ht="119">
       <c r="A47" s="12" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C47" s="15">
         <v>2</v>
@@ -2852,10 +2931,10 @@
     </row>
     <row r="48" spans="1:3" ht="26">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C48" s="15">
         <v>2</v>
@@ -2863,10 +2942,10 @@
     </row>
     <row r="49" spans="1:3" ht="68">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C49" s="15">
         <v>2</v>
@@ -2874,21 +2953,21 @@
     </row>
     <row r="50" spans="1:3" ht="102">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C50" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="34">
+    <row r="51" spans="1:3" ht="26">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15">
         <v>2</v>
@@ -2896,10 +2975,10 @@
     </row>
     <row r="52" spans="1:3" ht="34">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C52" s="15">
         <v>2</v>
@@ -2907,10 +2986,10 @@
     </row>
     <row r="53" spans="1:3" ht="85">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C53" s="15">
         <v>2</v>
@@ -2918,10 +2997,10 @@
     </row>
     <row r="54" spans="1:3" ht="221">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C54" s="15">
         <v>2</v>
@@ -2929,10 +3008,10 @@
     </row>
     <row r="55" spans="1:3" ht="34">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C55" s="15">
         <v>2</v>
@@ -2940,10 +3019,10 @@
     </row>
     <row r="56" spans="1:3" ht="51">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C56" s="15">
         <v>2</v>
@@ -2951,10 +3030,10 @@
     </row>
     <row r="57" spans="1:3" ht="51">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C57" s="15">
         <v>2</v>
@@ -2962,10 +3041,10 @@
     </row>
     <row r="58" spans="1:3" ht="102">
       <c r="A58" s="13" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C58" s="15">
         <v>2</v>
@@ -2973,10 +3052,10 @@
     </row>
     <row r="59" spans="1:3" ht="119">
       <c r="A59" s="13" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C59" s="15">
         <v>2</v>
@@ -2984,10 +3063,10 @@
     </row>
     <row r="60" spans="1:3" ht="51">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C60" s="15">
         <v>2</v>
@@ -2995,10 +3074,10 @@
     </row>
     <row r="61" spans="1:3" ht="51">
       <c r="A61" s="8" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C61" s="15">
         <v>2</v>
@@ -3006,10 +3085,10 @@
     </row>
     <row r="62" spans="1:3" ht="34">
       <c r="A62" s="8" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C62" s="15">
         <v>2</v>
@@ -3017,10 +3096,10 @@
     </row>
     <row r="63" spans="1:3" ht="34">
       <c r="A63" s="8" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C63" s="15">
         <v>2</v>
@@ -3028,10 +3107,10 @@
     </row>
     <row r="64" spans="1:3" ht="68">
       <c r="A64" s="8" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C64" s="15">
         <v>2</v>
@@ -3039,10 +3118,10 @@
     </row>
     <row r="65" spans="1:3" ht="85">
       <c r="A65" s="9" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C65" s="15">
         <v>2</v>
@@ -3050,21 +3129,21 @@
     </row>
     <row r="66" spans="1:3" ht="119">
       <c r="A66" s="9" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C66" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="153">
+    <row r="67" spans="1:3" ht="136">
       <c r="A67" s="14" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C67" s="15">
         <v>2</v>
@@ -3072,10 +3151,10 @@
     </row>
     <row r="68" spans="1:3" ht="204">
       <c r="A68" s="9" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="C68" s="15">
         <v>2</v>
@@ -3083,10 +3162,10 @@
     </row>
     <row r="69" spans="1:3" ht="51">
       <c r="A69" s="9" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C69" s="15">
         <v>2</v>
@@ -3094,10 +3173,10 @@
     </row>
     <row r="70" spans="1:3" ht="221">
       <c r="A70" s="11" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C70" s="15">
         <v>2</v>
@@ -3105,10 +3184,10 @@
     </row>
     <row r="71" spans="1:3" ht="153">
       <c r="A71" s="14" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="C71" s="15">
         <v>2</v>
@@ -3116,21 +3195,21 @@
     </row>
     <row r="72" spans="1:3" ht="68">
       <c r="A72" s="9" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C72" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="51">
+    <row r="73" spans="1:3" ht="34">
       <c r="A73" s="9" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C73" s="15">
         <v>2</v>
@@ -3138,10 +3217,10 @@
     </row>
     <row r="74" spans="1:3" ht="51">
       <c r="A74" s="9" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C74" s="15">
         <v>2</v>
@@ -3149,10 +3228,10 @@
     </row>
     <row r="75" spans="1:3" ht="136">
       <c r="A75" s="9" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="C75" s="15">
         <v>2</v>
@@ -3160,10 +3239,10 @@
     </row>
     <row r="76" spans="1:3" ht="26">
       <c r="A76" s="9" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C76" s="15">
         <v>2</v>
@@ -3171,10 +3250,10 @@
     </row>
     <row r="77" spans="1:3" ht="34">
       <c r="A77" s="9" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C77" s="15">
         <v>2</v>
@@ -3182,10 +3261,10 @@
     </row>
     <row r="78" spans="1:3" ht="34">
       <c r="A78" s="9" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C78" s="15">
         <v>2</v>
@@ -3193,21 +3272,21 @@
     </row>
     <row r="79" spans="1:3" ht="170">
       <c r="A79" s="9" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C79" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="153">
+    <row r="80" spans="1:3" ht="136">
       <c r="A80" s="9" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C80" s="15">
         <v>2</v>
@@ -3215,10 +3294,10 @@
     </row>
     <row r="81" spans="1:3" ht="119">
       <c r="A81" s="11" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C81" s="15">
         <v>2</v>
@@ -3226,10 +3305,10 @@
     </row>
     <row r="82" spans="1:3" ht="85">
       <c r="A82" s="9" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C82" s="15">
         <v>2</v>
@@ -3237,10 +3316,10 @@
     </row>
     <row r="83" spans="1:3" ht="187">
       <c r="A83" s="14" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="C83" s="15">
         <v>2</v>
@@ -3248,10 +3327,10 @@
     </row>
     <row r="84" spans="1:3" ht="26">
       <c r="A84" s="9" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C84" s="15">
         <v>2</v>
@@ -3259,10 +3338,10 @@
     </row>
     <row r="85" spans="1:3" ht="153">
       <c r="A85" s="9" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C85" s="15">
         <v>2</v>
@@ -3270,10 +3349,10 @@
     </row>
     <row r="86" spans="1:3" ht="68">
       <c r="A86" s="9" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C86" s="15">
         <v>2</v>
@@ -3281,10 +3360,10 @@
     </row>
     <row r="87" spans="1:3" ht="26">
       <c r="A87" s="9" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C87" s="15">
         <v>2</v>
@@ -3292,10 +3371,10 @@
     </row>
     <row r="88" spans="1:3" ht="68">
       <c r="A88" s="14" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C88" s="15">
         <v>2</v>
@@ -3303,10 +3382,10 @@
     </row>
     <row r="89" spans="1:3" ht="34">
       <c r="A89" s="9" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C89" s="15">
         <v>2</v>
@@ -3314,10 +3393,10 @@
     </row>
     <row r="90" spans="1:3" ht="68">
       <c r="A90" s="9" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C90" s="15">
         <v>2</v>
@@ -3325,10 +3404,10 @@
     </row>
     <row r="91" spans="1:3" ht="68">
       <c r="A91" s="9" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C91" s="15">
         <v>2</v>
@@ -3336,10 +3415,10 @@
     </row>
     <row r="92" spans="1:3" ht="26">
       <c r="A92" s="9" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C92" s="15">
         <v>2</v>
@@ -3347,10 +3426,10 @@
     </row>
     <row r="93" spans="1:3" ht="170">
       <c r="A93" s="9" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C93" s="15">
         <v>2</v>
@@ -3358,10 +3437,10 @@
     </row>
     <row r="94" spans="1:3" ht="170">
       <c r="A94" s="11" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C94" s="15">
         <v>2</v>
@@ -3369,10 +3448,10 @@
     </row>
     <row r="95" spans="1:3" ht="221">
       <c r="A95" s="14" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="C95" s="15">
         <v>2</v>
@@ -3380,10 +3459,10 @@
     </row>
     <row r="96" spans="1:3" ht="68">
       <c r="A96" s="14" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C96" s="15">
         <v>2</v>
@@ -3391,10 +3470,10 @@
     </row>
     <row r="97" spans="1:3" ht="323">
       <c r="A97" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C97" s="15">
         <v>2</v>
@@ -3402,10 +3481,10 @@
     </row>
     <row r="98" spans="1:3" ht="306" customHeight="1">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C98" s="15">
         <v>2</v>
@@ -3413,10 +3492,10 @@
     </row>
     <row r="99" spans="1:3" ht="306" customHeight="1">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="C99" s="15">
         <v>2</v>
@@ -3424,10 +3503,10 @@
     </row>
     <row r="100" spans="1:3" ht="153">
       <c r="A100" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C100" s="15">
         <v>2</v>
@@ -3435,10 +3514,10 @@
     </row>
     <row r="101" spans="1:3" ht="51">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C101" s="15">
         <v>2</v>
@@ -3446,10 +3525,10 @@
     </row>
     <row r="102" spans="1:3" ht="85">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C102" s="15">
         <v>2</v>
@@ -3457,21 +3536,21 @@
     </row>
     <row r="103" spans="1:3" ht="85">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="C103" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="102">
+    <row r="104" spans="1:3" ht="85">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C104" s="15">
         <v>2</v>
@@ -3479,10 +3558,10 @@
     </row>
     <row r="105" spans="1:3" ht="119">
       <c r="A105" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C105" s="15">
         <v>2</v>
@@ -3490,10 +3569,10 @@
     </row>
     <row r="106" spans="1:3" ht="85">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="C106" s="15">
         <v>2</v>
@@ -3501,21 +3580,21 @@
     </row>
     <row r="107" spans="1:3" ht="85">
       <c r="A107" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C107" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="170">
+    <row r="108" spans="1:3" ht="153">
       <c r="A108" s="13" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C108" s="15">
         <v>2</v>
@@ -3523,10 +3602,10 @@
     </row>
     <row r="109" spans="1:3" ht="85">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="C109" s="15">
         <v>2</v>
@@ -3534,10 +3613,10 @@
     </row>
     <row r="110" spans="1:3" ht="119">
       <c r="A110" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C110" s="15">
         <v>2</v>
@@ -3545,10 +3624,10 @@
     </row>
     <row r="111" spans="1:3" ht="85">
       <c r="A111" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C111" s="15">
         <v>2</v>
@@ -3556,10 +3635,10 @@
     </row>
     <row r="112" spans="1:3" ht="26">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C112" s="15">
         <v>2</v>
@@ -3567,10 +3646,10 @@
     </row>
     <row r="113" spans="1:3" ht="26">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C113" s="15">
         <v>2</v>
@@ -3578,10 +3657,10 @@
     </row>
     <row r="114" spans="1:3" ht="204">
       <c r="A114" s="13" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C114" s="15">
         <v>2</v>
@@ -3589,10 +3668,10 @@
     </row>
     <row r="115" spans="1:3" ht="85">
       <c r="A115" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C115" s="15">
         <v>2</v>
@@ -3600,10 +3679,10 @@
     </row>
     <row r="116" spans="1:3" ht="153">
       <c r="A116" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C116" s="15">
         <v>2</v>
@@ -3611,10 +3690,10 @@
     </row>
     <row r="117" spans="1:3" ht="26">
       <c r="A117" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C117" s="15">
         <v>2</v>
@@ -3622,10 +3701,10 @@
     </row>
     <row r="118" spans="1:3" ht="51">
       <c r="A118" s="12" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C118" s="15">
         <v>2</v>
@@ -3633,10 +3712,10 @@
     </row>
     <row r="119" spans="1:3" ht="119">
       <c r="A119" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C119" s="15">
         <v>2</v>
@@ -3644,10 +3723,10 @@
     </row>
     <row r="120" spans="1:3" ht="372">
       <c r="A120" s="12" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="C120" s="15">
         <v>2</v>
@@ -3655,10 +3734,10 @@
     </row>
     <row r="121" spans="1:3" ht="153">
       <c r="A121" s="13" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="C121" s="15">
         <v>2</v>
@@ -3666,10 +3745,10 @@
     </row>
     <row r="122" spans="1:3" ht="34">
       <c r="A122" s="12" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="C122" s="15">
         <v>2</v>
@@ -3677,10 +3756,10 @@
     </row>
     <row r="123" spans="1:3" ht="68">
       <c r="A123" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="C123" s="15">
         <v>2</v>
@@ -3688,10 +3767,10 @@
     </row>
     <row r="124" spans="1:3" ht="221">
       <c r="A124" s="13" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="C124" s="15">
         <v>2</v>
@@ -3699,10 +3778,10 @@
     </row>
     <row r="125" spans="1:3" ht="51">
       <c r="A125" s="13" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="C125" s="15">
         <v>2</v>
@@ -3710,10 +3789,10 @@
     </row>
     <row r="126" spans="1:3" ht="119">
       <c r="A126" s="13" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="C126" s="15">
         <v>2</v>
@@ -3721,10 +3800,10 @@
     </row>
     <row r="127" spans="1:3" ht="238">
       <c r="A127" s="13" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="C127" s="15">
         <v>2</v>
@@ -4427,7 +4506,7 @@
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="109" thickBot="1">
+    <row r="1" spans="1:3" ht="112" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4435,15 +4514,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="52" thickTop="1">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4451,58 +4530,58 @@
     </row>
     <row r="3" spans="1:3" ht="136">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="102">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="85">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +4670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AF5C38-F866-CC49-B6D0-8C3522F5AB74}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4602,7 +4681,7 @@
     <col min="3" max="3" width="15.1640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="64" thickBot="1">
+    <row r="1" spans="1:3" ht="66" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4610,15 +4689,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="103" thickTop="1">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aileen/workspace/Python3/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7585D753-1C73-AA49-ABAF-642FB497D5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0BF4AA-D95A-E745-B23F-3E39DFDFB40A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{A0810453-13E6-1046-861F-71BE4A3A24FB}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{A0810453-13E6-1046-861F-71BE4A3A24FB}"/>
   </bookViews>
   <sheets>
     <sheet name="机器学习" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="288">
   <si>
     <t>题目</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -220,6 +220,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>1-纯文本
 2-markdown</t>
@@ -295,15 +296,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LR  |   线性回归
---|--
-通过极大似然估计MLE求解| 最小二乘
-用于分类| 用于回归
-都是广义线性回归GLM问题
-都对非线性问题处理能力欠佳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>没有本质区别（指数族分布本身就有最大熵定理）
 在解决二分类问题时，LR与最大熵（求总熵值最大的事件概率）是等同的
 在多分类问题时，最大熵模型就是多项逻辑回归</t>
@@ -314,18 +306,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-- 优点
-  - 简单，易部署，训练速度快，可并行
-  - 模型下限较高
-  - 可解释性强
-- 缺点
-  - 只能线性可分
-  - 数据不平衡需要人为处理，weight_class/有哪些常见的采样方法
-  - 模型上限较低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LR除了做分类还能做什么</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -346,16 +326,6 @@
   </si>
   <si>
     <t>SVM原理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>思想：最大化间隔
-从分类平面，到两类间的间隔最大化
-优化方法：
-1. 拉格朗日乘数法把约束优化——&gt;无约束优化
-2. 对各变量求导令=0代入对偶问题（w用λ表示）、构造KKT条件（保证对偶问题=原问题）
-3. 化简对偶问题为对λ的优化问题，SMO求解λ（固定一部分，求另一部分...）
-4. 用求得的λ求出w、b(根据yf(x)=1求，遍历所有支持向量求均值)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -375,19 +345,6 @@
 OvO：n个类别两两匹配，每次只用2个类样本，最后投票出结果
 OvM：1类以外的其他类作为第二类，每次都用所有样本，比较最后置信度
 MvM：若干作为+类，若干-类（不能随意构造需特殊设计），例：纠错输出码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVM可以做回归吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以，把损失函数改为 
-min(1/2 ||w||^2),
-s.t. |y-(w'x+b)|≤ε  （硬阈值形式，加松弛变量变为ε-不敏感误差函数）
-（相当于带L2正则项的线性回归，把平方损失改成ε-不敏感误差函数）
-此时y是连续值， |真实值-预测值| 的误差在一个区域内(ε-不敏感误差函数) ，则认为没有误差
-希望点都落在预测平面的 ε缓冲区内，超出缓冲区的加损失。ε=0表示不允许预测存在错误的缓冲区。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1464,14 +1421,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>如果朴素贝叶斯也有在某一类上的数据x满足高斯分布的前提假设，则与LR一致
-区别 | LR |  朴素贝叶斯
---|--|--
-模型类型|判别模型（直接求$P(y \mid x_1,x_2,…x_p)$）|生成模型（求$P(x_1,x_2,…x_p,y)$）
-条件独立假设| 无（但不能共线性）| 有</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>优化监督学习=优化模型的泛化误差，模型的泛化误差可分解为偏差、方差与噪声之和
 ** Err =$\operatorname{bias}^{2}+var+\sigma_{e}$**
 证明如下：
@@ -1596,14 +1545,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 频率派认为模型参数是个定值，希望通过类似解方程组的方式从数据中求得该未知数。这就是频率学派使用的参数估计方法-极大似然估计（MLE）
-$$\beta^{*}=\arg\max_{\beta} \ln \left(\prod_{i=1}^{n} p\left(y_{i} \mid x_{i}, \beta\right) \right)=\arg \max_{\beta} \sum_{i=1}^{n}\left(\ln p\left(y_{i} \mid x_{i}, \beta\right)\right)$$
-2. 贝叶斯派认为模型参数是个变量（源自某种潜在分布），希望从数据中推知该分布。对于数据的观测方式不同或者假设不同，那么推知的该参数也会因此而存在差异。这就是贝叶斯派视角下用来估计参数的常用方法-最大后验概率估计（MAP）
-$$\beta^{*}=\arg\max_{\beta} \ln \left(\prod_{i=1}^{n} p\left(y_{i} \mid x_{i}, \beta\right) p(\beta)\right) $$
-把先验假设$p(\beta)$去掉，或者假设先验满足均匀分布的话，那MAP和MLE就如出一辙了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>经验风险最小化与结构风险最小化是对于损失函数而言的。
 + 经验风险最小化只侧重训练数据集上的损失降到最低；
 + 结构风险最小化是在经验风险最小化的基础上约束模型的复杂度(相当于在损失函数上增加了正则项)，这一点也符合【奥卡姆剃刀原则】：如无必要，勿增实体。</t>
@@ -1628,16 +1569,6 @@
 $p(y | x,\theta) = \phi (z)^y (1-\phi (z))^{1-y} $
 + 【几率odds】$=\frac{y}{(1-y)}$: x是正例的相对可能性 VS  【对数几率logit】$ = ln \frac{y}{1-y}=w'x+b$
 + 损失函数=-log MLE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-区别 | LR | GDA
---|--|--
-类型 | 判别模型 | 生成模型
-前提假设 | $y \sim \operatorname{Bernoulli}(\phi)$，$x \sim logistic$ 分布 | $y \sim \operatorname{Bernoulli}(\phi)$，不同类别的x分别服从多元高斯分布$P(x \mid y=c) \sim N\left(\mu_{c}, \Sigma\right)$
-参数估计方法 | MLE | MAP
-![](https://tva1.sinaimg.cn/large/007S8ZIlgy1gh93r3fbxmj30kg0e2gmx.jpg)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1781,6 +1712,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1. 【充分统计量性质】：只需要数据统计量（如均值方差）就够了，原数据可以扔了；
+2. 【共轭性】：后验数据分布与先验参数分布共轭，具有相同的分布形式（分布参数不一定一样）可以容易地求出数据后验分布；
+3. 【最大熵原理】：
+ + 无任何已知条件情况下最大熵 &lt;==&gt; 等可能
+ + 有已知事实（约束）情况下，最大熵原理==&gt; 指数族分布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>损失函数一般有四种，平方损失函数，对数损失函数（也叫交叉熵损失/logistic loss），HingeLoss0-1损失函数，绝对值损失函数。
 ### 回归问题：
 1. 平方损失（MSE）：$MSE=\frac{1}{N} \sum_{i=1}^{N}\left(y^{(i)}-f\left(x^{(i)}\right)\right)^{2}$
@@ -1790,17 +1729,136 @@
 标准形式：$L(Y, P(Y \mid X))=-\log P(Y \mid X)$
 对于 {0,1} ：$J(\theta)=-\left[\sum_{i=1}^{m} y^{(i)} \log h_{\theta}\left(x^{(i)}\right)+\left(1-y^{(i)}\right) \log \left(1-h_{\theta}\left(x^{(i)}\right)\right)\right]$
 对于 {-1,+1}: $J(\theta)=\sum_{i=1}^{m} log(1+e^{-y_i w’x_i})$
-2. 指数损失：$L(y,h(x))= exp[-yh(x)]$</t>
+2. 指数损失（常用于Boosting）：$L(y,h(x))= exp[-yh(x)]$
+3. hinge loss 0-1损失（常用于SVM）：$L(y, f(x))=\max (0,1-y f(x))$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
-- 理论角度:
+1. 理论角度:
   - 梯度下降过程稳定
   - 使得数据在某类上更服从前提假设
-- 工程角度：
+2. 工程角度：
   - 加速收敛，提高计算效率
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比| LR  |   线性回归
+--|--|--
+方法| 通过极大似然估计MLE求解| 最小二乘
+任务| 用于（二）分类| 用于回归
+输出| 输出被映射到[0,1]范围，并通过阈值转为类别| 实数域上的连续值
+都是广义线性回归GLM问题
+都对非线性问题处理能力欠佳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 频率派认为模型参数是个定值，希望通过类似解方程组的方式从数据中求得该未知数。这就是频率学派使用的参数估计方法-极大似然估计（MLE）
+$$\beta^{*}=\arg\max_{\beta} \ln \left(\prod_{i=1}^{n} p\left(y_{i} \mid x_{i}, \beta\right) \right)=\arg \max_{\beta} \sum_{i=1}^{n}\left(\ln p\left(y_{i} \mid x_{i}, \beta\right)\right)$$
+显然当缺乏数据时MLE可能会产生严重的偏差。
+2. 贝叶斯派认为模型参数是个变量（源自某种潜在分布），希望从数据中推知该分布。对于数据的观测方式不同或者假设不同，那么推知的该参数也会因此而存在差异。这就是贝叶斯派视角下用来估计参数的常用方法-最大后验概率估计（MAP）
+$$\beta^{*}=\arg\max_{\beta} \ln \left(\prod_{i=1}^{n} p\left(y_{i} \mid x_{i}, \beta\right) p(\beta)\right) $$
+随着数据量的增加，参数分布会更倾向于向数据靠拢，先验假设的影响会越来越小。
+二者关系大致为： $M A P(\beta) \approx M L E(\beta)+P(\beta)$
+把先验假设$p(\beta)$去掉，或者假设先验满足均匀分布的话，那MAP和MLE就如出一辙了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+区别 | LR |  朴素贝叶斯
+--|--|--
+模型类型|判别模型（Discriminative model）|生成模型（Generative model）
+思路| 直接对后验概率$P(y \mid x_1,x_2,…x_p)$建模，使用极大似然估计法（MLE）使其最大化| 对特征x和目标y的联合分布$P(x_1,x_2,…x_p,y)$建模，使用极大后验概率（MAP）估计法估计出最有可能的$P(y \mid x)$
+条件独立假设| 无（但不能共线性）| 有
+参数分布假设| 假设$y \sim Bernoulli(x)$，$x \sim logistic$分布 | 假设某先验分布y（可以是Bernoulli也可是其它）
+适用于| 大数据 | 小数据
++ 在小数据上Naive bayes可以取得更好的效果，随着数据的增多、特征维度的增大，Logistic regression的效果更好。
+这是因为Naive bayes是生成模型，假设训练数据服从某种分布，在有prior的情况下模型能够把数据fit的更好，但是随着数据量的增多，prior对整个数据后验概率分布的影响逐渐降低。而Logistic regression属于判别模型，不去建模联合概率，通过训练数据直接预测输出，因此在数据足够多的情况下能够得到更好一些的效果。
+[带你搞懂朴素贝叶斯分类算法](https://blog.csdn.net/amds123/article/details/70173402)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+区别 | LR | GDA
+--|--|--
+类型 | 判别模型 | 生成模型
+前提假设 | $y \sim \operatorname{Bernoulli}(\phi)$，$x \sim logistic$ 分布 | $y \sim \operatorname{Bernoulli}(\phi)$，不同类别的x分别服从多元高斯分布$P(x \mid y=c) \sim N\left(\mu_{c}, \Sigma\right)$
+参数估计方法 | MLE | MAP
+服从多元高斯分布的一定服从Logitstic分布，反之不成立。
+![](https://tva1.sinaimg.cn/large/007S8ZIlgy1gh93r3fbxmj30kg0e2gmx.jpg)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 优点
+  - 简单，易部署，训练速度快，可并行
+  - 模型下限较高
+  - 可解释性强
+2.  缺点
+  - 只能线性可分
+  - 数据不平衡需要人为处理，weight_class/有哪些常见的采样方法
+  - 模型上限较低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVM可以做回归吗？（SVR）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://tva1.sinaimg.cn/large/007S8ZIlgy1ghden7qerqj30sy0pawgt.jpg" width="280" height="230" align="top" /&gt;
++ 思想：最大化间隔
++ 从分类平面，到两类间的间隔最大化
++ 目标函数
+    - 硬阈值：
+ $$
+\begin{array}{l}
+\min _{\boldsymbol{w}, b} \frac{1}{2}\|\boldsymbol{w}\|^{2} \\
+\text { s.t. } y_{i}\left(\boldsymbol{w} \cdot \boldsymbol{x}_{i}+b\right) \geq 1, i=1,2, \ldots, N
+\end{array}
+$$
+    - 软阈值：
++ 优化方法：
+1. 拉格朗日乘数法把约束优化——&gt;无约束优化
+$$
+L(\boldsymbol{w}, b, \boldsymbol{\lambda})=\frac{1}{2}\|\boldsymbol{w}\|^{2}+\sum_{i=1}^{N} \lambda_{i}\left(1-y_{i}\left(\boldsymbol{w} \cdot \boldsymbol{x}_{i}+b\right)\right)
+$$
+$$
+\boldsymbol{w}^*=\arg \min_{w,b} \max _{\lambda_{i} \geq 0} L(\boldsymbol{w}, b, \boldsymbol{\lambda})
+$$
+2. 用拉格朗日对偶性，把$\min \max$调换一下。得到$\max _{\lambda_{i} \geq 0} \min_{w,b}L(\boldsymbol{w}, b, \boldsymbol{\lambda})$。并对$\frac{\partial L}{\partial w}$，$\frac{\partial L}{\partial b}$求导令=0代入对偶问题（w和b用λ表示）、构造KKT条件（强对偶问题解的充分必要条件）。
+3. 化简对偶问题为对λ的优化问题，SMO求解λ（固定一部分，求另一部分...）
+4. 用求得的λ求出w、b(根据yf(x)=1求，遍历所有支持向量求均值)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强对偶、slater条件、KKT条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
++ 凸优化+slater条件 =&gt; 满足强对偶关系（对偶=原问题）
++ 除了slater条件还有其他条件可以满足上面的结论
++ 大多数凸问题（如二次规划问题）都满足slater条件
+### KKT条件
++ KKT条件提供了强对偶关系的解法。KKT&lt;=&gt;强对偶
++ 强对偶性成立时，KKT条件为最优点的必要条件；
++ 凸优化问题中，KKT条件为最优点的充分条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://tva1.sinaimg.cn/large/007S8ZIlgy1ghdedehd3bj310i0iujta.jpg" alt="svr.jpg" width="400" height="210" align="bottom" /&gt;
+可以，把损失函数改为 
+$$
+\begin{array}{l}
+\min _{\boldsymbol{w}, b} \frac{1}{2}\|\boldsymbol{w}\|^{2} \\
+\text { s.t. } y_{i}-\left(\boldsymbol{w} \cdot \boldsymbol{x}_{i}+b\right) \leq \varepsilon, i=1,2, \ldots, N
+\end{array}
+$$
+（硬阈值模式，ε-不敏感误差函数）
++ 目标函数和SVM一致，约束条件不一致，含义与SVM正好相反。SVM是让训练集的点尽量远离自己类别一边的支持向量，SVR是让训练集的点尽量拟合在线性模型$y=w \cdot x+b$，浮动在[-ε,ε]范围内。
++ SVR相当于带L2正则项的线性回归，把平方损失改成ε-不敏感误差函数
++ 软阈值模式：给缓冲区ε外的点计算损失。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1859,6 +1917,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2019,13 +2078,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2019300</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6197600</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>3557772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2063,13 +2122,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2552700</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>1181100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2403,10 +2462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4778FA9-EECD-D14E-A1D7-3A5640976DFD}">
-  <dimension ref="A1:C352"/>
+  <dimension ref="A1:C353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2429,10 +2488,10 @@
     </row>
     <row r="2" spans="1:3" ht="89" customHeight="1" thickTop="1">
       <c r="A2" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C2" s="15">
         <v>2</v>
@@ -2440,10 +2499,10 @@
     </row>
     <row r="3" spans="1:3" ht="305" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C3" s="15">
         <v>2</v>
@@ -2451,10 +2510,10 @@
     </row>
     <row r="4" spans="1:3" ht="147" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C4" s="15">
         <v>2</v>
@@ -2462,10 +2521,10 @@
     </row>
     <row r="5" spans="1:3" ht="147" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C5" s="15">
         <v>2</v>
@@ -2473,10 +2532,10 @@
     </row>
     <row r="6" spans="1:3" ht="147" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C6" s="15">
         <v>2</v>
@@ -2487,7 +2546,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C7" s="15">
         <v>2</v>
@@ -2498,7 +2557,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C8" s="15">
         <v>2</v>
@@ -2509,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C9" s="15">
         <v>2</v>
@@ -2520,7 +2579,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C10" s="15">
         <v>2</v>
@@ -2531,7 +2590,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C11" s="15">
         <v>2</v>
@@ -2542,7 +2601,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C12" s="15">
         <v>2</v>
@@ -2553,18 +2612,18 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C13" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="170">
+    <row r="14" spans="1:3" ht="238">
       <c r="A14" s="13" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
@@ -2575,7 +2634,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C15" s="15">
         <v>2</v>
@@ -2586,7 +2645,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
@@ -2594,10 +2653,10 @@
     </row>
     <row r="17" spans="1:3" ht="221">
       <c r="A17" s="12" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C17" s="15">
         <v>2</v>
@@ -2605,10 +2664,10 @@
     </row>
     <row r="18" spans="1:3" ht="409" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -2619,7 +2678,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C19" s="15">
         <v>2</v>
@@ -2630,7 +2689,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C20" s="15">
         <v>2</v>
@@ -2641,7 +2700,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
@@ -2652,7 +2711,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C22" s="15">
         <v>2</v>
@@ -2674,7 +2733,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C24" s="15">
         <v>2</v>
@@ -2685,7 +2744,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C25" s="15">
         <v>2</v>
@@ -2718,7 +2777,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C28" s="15">
         <v>2</v>
@@ -2740,7 +2799,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C30" s="15">
         <v>2</v>
@@ -2751,7 +2810,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="15">
         <v>2</v>
@@ -2762,7 +2821,7 @@
         <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="15">
         <v>2</v>
@@ -2781,21 +2840,21 @@
     </row>
     <row r="34" spans="1:3" ht="356">
       <c r="A34" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C34" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="356">
+    <row r="35" spans="1:3" ht="102">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C35" s="15">
         <v>2</v>
@@ -2803,19 +2862,19 @@
     </row>
     <row r="36" spans="1:3" ht="51">
       <c r="A36" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="1:3" ht="238">
+    <row r="37" spans="1:3" ht="255">
       <c r="A37" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C37" s="15">
         <v>2</v>
@@ -2837,18 +2896,18 @@
         <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C39" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="119">
+    <row r="40" spans="1:3" ht="136">
       <c r="A40" s="13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="C40" s="15">
         <v>2</v>
@@ -2856,10 +2915,10 @@
     </row>
     <row r="41" spans="1:3" ht="51">
       <c r="A41" s="13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="15">
         <v>2</v>
@@ -2867,21 +2926,21 @@
     </row>
     <row r="42" spans="1:3" ht="187">
       <c r="A42" s="13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C42" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="102">
+    <row r="43" spans="1:3" ht="306">
       <c r="A43" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="C43" s="15">
         <v>2</v>
@@ -2889,19 +2948,19 @@
     </row>
     <row r="44" spans="1:3" ht="409" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:3" ht="153">
       <c r="A45" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="C45" s="15">
         <v>2</v>
@@ -2909,120 +2968,118 @@
     </row>
     <row r="46" spans="1:3" ht="26">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="119">
+    <row r="47" spans="1:3" ht="409.6">
       <c r="A47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="153">
+      <c r="A48" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:3" ht="26">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C49" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="68">
+      <c r="A50" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="26">
-      <c r="A48" t="s">
+      <c r="B50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C50" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="289">
+      <c r="A51" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="26">
+      <c r="A52" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="68">
-      <c r="A49" t="s">
+      <c r="B52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C52" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34">
+      <c r="A53" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="102">
-      <c r="A50" t="s">
+      <c r="B53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C53" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="85">
+      <c r="A54" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="26">
-      <c r="A51" t="s">
+      <c r="B54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C54" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="221">
+      <c r="A55" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="34">
-      <c r="A52" t="s">
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="34">
+      <c r="A56" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="85">
-      <c r="A53" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="221">
-      <c r="A54" t="s">
+      <c r="B56" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="34">
-      <c r="A55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="51">
-      <c r="A56" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C56" s="15">
         <v>2</v>
@@ -3030,65 +3087,65 @@
     </row>
     <row r="57" spans="1:3" ht="51">
       <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="51">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="102">
+      <c r="A59" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="119">
+      <c r="A60" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C60" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="51">
+      <c r="A61" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="102">
-      <c r="A58" s="13" t="s">
+      <c r="B61" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C61" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="51">
+      <c r="A62" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="119">
-      <c r="A59" s="13" t="s">
+      <c r="B62" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="51">
-      <c r="A60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="51">
-      <c r="A61" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="34">
-      <c r="A62" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C62" s="15">
         <v>2</v>
@@ -3096,164 +3153,164 @@
     </row>
     <row r="63" spans="1:3" ht="34">
       <c r="A63" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="34">
+      <c r="A64" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="68">
+      <c r="A65" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C65" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="85">
+      <c r="A66" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="68">
-      <c r="A64" s="8" t="s">
+      <c r="C66" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="119">
+      <c r="A67" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C67" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="136">
+      <c r="A68" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="204">
+      <c r="A69" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="85">
-      <c r="A65" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="B69" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="51">
+      <c r="A70" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="119">
-      <c r="A66" s="9" t="s">
+      <c r="B70" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="C70" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="221">
+      <c r="A71" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="153">
+      <c r="A72" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="136">
-      <c r="A67" s="14" t="s">
+      <c r="B72" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="68">
+      <c r="A73" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="204">
-      <c r="A68" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C68" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="51">
-      <c r="A69" s="9" t="s">
+      <c r="C73" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="34">
+      <c r="A74" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="221">
-      <c r="A70" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="153">
-      <c r="A71" s="14" t="s">
+      <c r="C74" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="51">
+      <c r="A75" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="68">
-      <c r="A72" s="9" t="s">
+      <c r="B75" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C72" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="34">
-      <c r="A73" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="C75" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="136">
+      <c r="A76" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="51">
-      <c r="A74" s="9" t="s">
+      <c r="B76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="26">
+      <c r="A77" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C74" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="136">
-      <c r="A75" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C75" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="26">
-      <c r="A76" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C76" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="34">
-      <c r="A77" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C77" s="15">
         <v>2</v>
@@ -3261,142 +3318,142 @@
     </row>
     <row r="78" spans="1:3" ht="34">
       <c r="A78" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="34">
+      <c r="A79" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="170">
+      <c r="A80" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="136">
+      <c r="A81" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C81" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="119">
+      <c r="A82" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C78" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="170">
-      <c r="A79" s="9" t="s">
+      <c r="B82" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C82" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="85">
+      <c r="A83" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C79" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="136">
-      <c r="A80" s="9" t="s">
+      <c r="B83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="187">
+      <c r="A84" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="26">
+      <c r="A85" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C80" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="119">
-      <c r="A81" s="11" t="s">
+      <c r="C85" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="153">
+      <c r="A86" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="68">
+      <c r="A87" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="26">
+      <c r="A88" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="68">
+      <c r="A89" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="34">
+      <c r="A90" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C81" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="85">
-      <c r="A82" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C82" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="187">
-      <c r="A83" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C83" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="26">
-      <c r="A84" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C84" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="153">
-      <c r="A85" s="9" t="s">
+      <c r="B90" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="68">
-      <c r="A86" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="26">
-      <c r="A87" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C87" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="68">
-      <c r="A88" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="34">
-      <c r="A89" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C89" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="68">
-      <c r="A90" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C90" s="15">
         <v>2</v>
@@ -3404,87 +3461,87 @@
     </row>
     <row r="91" spans="1:3" ht="68">
       <c r="A91" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="68">
+      <c r="A92" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="26">
+      <c r="A93" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C93" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="170">
+      <c r="A94" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C91" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="26">
-      <c r="A92" s="9" t="s">
+      <c r="B94" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="170">
+      <c r="A95" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C95" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="221">
+      <c r="A96" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C92" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="170">
-      <c r="A93" s="9" t="s">
+      <c r="B96" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="68">
+      <c r="A97" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="170">
-      <c r="A94" s="11" t="s">
+      <c r="C97" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="323">
+      <c r="A98" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C94" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="221">
-      <c r="A95" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C95" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="68">
-      <c r="A96" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C96" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="323">
-      <c r="A97" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="306" customHeight="1">
-      <c r="A98" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C98" s="15">
         <v>2</v>
@@ -3492,43 +3549,43 @@
     </row>
     <row r="99" spans="1:3" ht="306" customHeight="1">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="C99" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="153">
+    <row r="100" spans="1:3" ht="306" customHeight="1">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C100" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="51">
+    <row r="101" spans="1:3" ht="153">
       <c r="A101" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C101" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="85">
+    <row r="102" spans="1:3" ht="51">
       <c r="A102" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C102" s="15">
         <v>2</v>
@@ -3536,10 +3593,10 @@
     </row>
     <row r="103" spans="1:3" ht="85">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C103" s="15">
         <v>2</v>
@@ -3547,32 +3604,32 @@
     </row>
     <row r="104" spans="1:3" ht="85">
       <c r="A104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="85">
+      <c r="A105" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C104" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="119">
-      <c r="A105" t="s">
-        <v>165</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C105" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="85">
+    <row r="106" spans="1:3" ht="119">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C106" s="15">
         <v>2</v>
@@ -3580,65 +3637,65 @@
     </row>
     <row r="107" spans="1:3" ht="85">
       <c r="A107" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="85">
+      <c r="A108" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="153">
+      <c r="A109" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="85">
+      <c r="A110" t="s">
+        <v>169</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C107" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="153">
-      <c r="A108" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="C110" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="119">
+      <c r="A111" t="s">
         <v>173</v>
       </c>
-      <c r="C108" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="85">
-      <c r="A109" t="s">
+      <c r="B111" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="85">
+      <c r="A112" t="s">
         <v>174</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C109" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="119">
-      <c r="A110" t="s">
-        <v>178</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="85">
-      <c r="A111" t="s">
-        <v>179</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C111" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="26">
-      <c r="A112" t="s">
-        <v>181</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C112" s="15">
         <v>2</v>
@@ -3646,171 +3703,179 @@
     </row>
     <row r="113" spans="1:3" ht="26">
       <c r="A113" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C113" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="26">
+      <c r="A114" t="s">
+        <v>179</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C114" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="204">
+      <c r="A115" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C115" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="68">
+      <c r="A116" t="s">
+        <v>183</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C116" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="153">
+      <c r="A117" t="s">
         <v>185</v>
       </c>
-      <c r="C113" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="204">
-      <c r="A114" s="13" t="s">
+      <c r="B117" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C117" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="26">
+      <c r="A118" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="85">
-      <c r="A115" t="s">
+      <c r="B118" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C118" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="51">
+      <c r="A119" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C115" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="153">
-      <c r="A116" t="s">
+      <c r="B119" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C119" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="119">
+      <c r="A120" t="s">
         <v>191</v>
       </c>
-      <c r="C116" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="26">
-      <c r="A117" t="s">
+      <c r="B120" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C117" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="51">
-      <c r="A118" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C118" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="119">
-      <c r="A119" t="s">
-        <v>196</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C119" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="372">
-      <c r="A120" s="12" t="s">
+      <c r="C120" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="372">
+      <c r="A121" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C121" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="153">
+      <c r="A122" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34">
+      <c r="A123" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="68">
+      <c r="A124" t="s">
+        <v>229</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="221">
+      <c r="A125" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="51">
+      <c r="A126" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="119">
+      <c r="A127" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C120" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="153">
-      <c r="A121" s="13" t="s">
+      <c r="B127" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="238">
+      <c r="A128" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C121" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="34">
-      <c r="A122" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C122" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="68">
-      <c r="A123" t="s">
-        <v>234</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C123" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="221">
-      <c r="A124" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C124" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="51">
-      <c r="A125" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C125" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="119">
-      <c r="A126" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C126" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="238">
-      <c r="A127" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C127" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="26">
-      <c r="C128" s="15"/>
+      <c r="C128" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="129" spans="3:3" ht="26">
       <c r="C129" s="15"/>
@@ -4483,6 +4548,9 @@
     </row>
     <row r="352" spans="3:3" ht="26">
       <c r="C352" s="15"/>
+    </row>
+    <row r="353" spans="3:3" ht="26">
+      <c r="C353" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4506,7 +4574,7 @@
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="112" thickBot="1">
+    <row r="1" spans="1:3" ht="109" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4519,10 +4587,10 @@
     </row>
     <row r="2" spans="1:3" ht="52" thickTop="1">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4530,58 +4598,58 @@
     </row>
     <row r="3" spans="1:3" ht="136">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="102">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="85">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4681,7 +4749,7 @@
     <col min="3" max="3" width="15.1640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="66" thickBot="1">
+    <row r="1" spans="1:3" ht="64" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4694,10 +4762,10 @@
     </row>
     <row r="2" spans="1:3" ht="103" thickTop="1">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aileen/workspace/Python3/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0BF4AA-D95A-E745-B23F-3E39DFDFB40A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901DEB26-291B-E840-83F3-4EB8D06CE2CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{A0810453-13E6-1046-861F-71BE4A3A24FB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A0810453-13E6-1046-861F-71BE4A3A24FB}"/>
   </bookViews>
   <sheets>
     <sheet name="机器学习" sheetId="3" r:id="rId1"/>
@@ -385,26 +385,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>将特征从低维空间（线性不可分）映射到高位空间（线性可分），
-核函数返回【两向量】高维空间【内积】
-种类：
-- 线性核函数：K(v1,v2) = &lt;v1,v2&gt;主要用于线性可分的情形。参数少，速度快。
-- 多项式核函数：K(v1,v2) = (r&lt;v1,v2&gt;+c)^n
-- 高斯核函数/径向基函数RBF：K(v1,v2) = exp(-r||v1-v2||^2)，主要用于线性不可分的情形。参数多，分类结果非常依赖于参数。
-- sigmoid 核函数：tanh(r&lt;v1,v2&gt;+c)
-- 拉普拉斯核函数：
-用的比较多的是线性核函数和高斯核函数，
-线性用于特征多、线性问题的时候；高斯核函数用于特征少，非线性问题需要升维的时候</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>为什么在数据量大的情况下常常用lr代替核SVM？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 计算非线性分类问题下，需要利用到SMO方法求解，该方法复杂度高O(n^2)
-- 在使用核函数的时候参数假设全靠试，时间成本过高</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -451,22 +432,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 构建根节点，存放所有训练数据
-2. 根据划分准则选择一个最优属性a，分割子集av1,av2,..标记为当前分值最多类别
-3. 若子集非空或子集容量未小于最小数量，递归1.2继续划分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>信息熵公式、缺点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>H(D)是信息不确定性的度量，
-熵越大，数据的不确定性越高（越不纯）；
-熵越小，数据的不确定性越低（越纯）；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>【信息增益率】公式、意义</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -475,24 +444,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>I_R(D,A)=I(D,A)/H_A(D) 在信息增益基础上除了一个各属性熵总值（相当于归一化）
-倾向：选择取值种类【少】的属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I(D,A)=H(D)-H(D|A)在属性A划分后信息的不确定性减少的程度（纯度提升的比率）越大越好
- 倾向：选择取值种类【多】的属性。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>【Gini系数】公式、意义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
--Gini值：Gini(D)=1-∑_ip_i^2  反映了从数据集D中抽取2样本类别不一样的概率
--Gini系数：Gini_index(D,A)为对属性A每个取值v划分的子数据计算Gini(D_v)值求平均
-越小越好。（越小表示同类别越多）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -701,14 +653,6 @@
 对应的任意划分点s两边划分成的数据集D1和D2，求出使D1和D2各自集合的均方差最小，
 同时使D1和D2的均方差之和最小的对应特征和特征值作为划分点
 ——output：利用最终叶子的均值或者中位数来作为输出结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBDT 的全称是 Gradient Boosting Decision Tree，梯度提升树
-GBDT使用的决策树是CART回归树（无论是回归任务还是分类任务）
-1. 提升树BT：不断学习回归树拟合前一时刻的【残差】，最后等于所有回归树结果之和。
-2. 梯度提升树GBDT：利用最速下降的近似方法，利用损失函数的【负梯度】作为提升树算法中的【残差】的近似值。（平方损失的【负梯度】= 【残差】，其他损失函数负梯度≈残差）
-3. 具体步骤：(1).初始化弱学习器，梯度下降训练——&gt;(2).对每个样本计算【负梯度】并将其作为该样本新值——&gt;(3).建立一棵新的树拟合新样本（回归问题根据最小均方差划分结点）——&gt;(4).迭代(2)(3)过程M次——&gt;(5)最终强学习器f(x)=f_M(x)=f_0(x)+η∑_M∑_i Res_im·I(x∈R_im) 属于全部m棵树的R_i结点的样本x的预测结果残差Res_im之和</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1806,6 +1750,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>强对偶、slater条件、KKT条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
++ 凸优化+slater条件 =&gt; 满足强对偶关系（对偶=原问题）
++ 除了slater条件还有其他条件可以满足上面的结论
++ 大多数凸问题（如二次规划问题）都满足slater条件
+### KKT条件
++ KKT条件提供了强对偶关系的解法。KKT&lt;=&gt;强对偶
++ 强对偶性成立时，KKT条件为最优点的必要条件；
++ 凸优化问题中，KKT条件为最优点的充分条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://tva1.sinaimg.cn/large/007S8ZIlgy1ghdedehd3bj310i0iujta.jpg" alt="svr.jpg" width="400" height="210" align="bottom" /&gt;
+可以，把损失函数改为 
+$$
+\begin{array}{l}
+\min _{\boldsymbol{w}, b} \frac{1}{2}\|\boldsymbol{w}\|^{2} \\
+\text { s.t. } y_{i}-\left(\boldsymbol{w} \cdot \boldsymbol{x}_{i}+b\right) \leq \varepsilon, i=1,2, \ldots, N
+\end{array}
+$$
+（硬阈值模式，ε-不敏感误差函数）
++ 目标函数和SVM一致，约束条件不一致，含义与SVM正好相反。SVM是让训练集的点尽量远离自己类别一边的支持向量，SVR是让训练集的点尽量拟合在线性模型$y=w \cdot x+b$，浮动在[-ε,ε]范围内。
++ SVR相当于带L2正则项的线性回归，把平方损失改成ε-不敏感误差函数
++ 软阈值模式：给缓冲区ε外的点计算损失。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;img src="https://tva1.sinaimg.cn/large/007S8ZIlgy1ghden7qerqj30sy0pawgt.jpg" width="280" height="230" align="top" /&gt;
 + 思想：最大化间隔
 + 从分类平面，到两类间的间隔最大化
@@ -1818,6 +1792,13 @@
 \end{array}
 $$
     - 软阈值：
+$$
+\begin{array}{l}
+\min _{\boldsymbol{w}, b,\xi_i}&amp; \frac{1}{2}\|\boldsymbol{w}\|^{2}+C\sum_{i=1}^{N}\xi_i \\
+\text { s.t. }&amp; y_{i}\left(\boldsymbol{w} \cdot \boldsymbol{x}_{i}+b\right) \geq 1-\xi_i\\
+&amp;\xi_i\geq0,i=1,2, \ldots, N
+\end{array}
+$$（当分类正确且在margin外，即$1-y_{i}\left(\boldsymbol{w} \cdot \boldsymbol{x}_{i}+b\right) \leq 1$时$\xi_i=0$，当分类错误/在margin内，即$1-y_{i}\left(\boldsymbol{w} \cdot \boldsymbol{x}_{i}+b\right) \ge 1$时$\xi_i\ge0$，产生损失）
 + 优化方法：
 1. 拉格朗日乘数法把约束优化——&gt;无约束优化
 $$
@@ -1832,33 +1813,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>强对偶、slater条件、KKT条件</t>
+    <t>将特征从低维空间（线性不可分）映射到高位空间（线性可分），
+核函数返回【两向量】高维空间【内积】
+种类：
+- 线性核函数：$K(v_1,v_2) = &lt;v_1,v_2&gt;$主要用于线性可分的情形。参数少，速度快。
+- 多项式核函数：$K(v_1,v_2) = (r&lt;v_1,v_2&gt;+c)^n$
+- 高斯核函数/径向基函数RBF：$K(v_1,v_2) = exp(-r||v_1-v_2||^2)$，主要用于线性不可分的情形。参数多，分类结果非常依赖于参数。
+- sigmoid 核函数：$tanh(r&lt;v_1,v_2&gt;+c)$
+- 拉普拉斯核函数：
+用的比较多的是线性核函数和高斯核函数，
+线性用于特征多、线性问题的时候；高斯核函数用于特征少，非线性问题需要升维的时候</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
-+ 凸优化+slater条件 =&gt; 满足强对偶关系（对偶=原问题）
-+ 除了slater条件还有其他条件可以满足上面的结论
-+ 大多数凸问题（如二次规划问题）都满足slater条件
-### KKT条件
-+ KKT条件提供了强对偶关系的解法。KKT&lt;=&gt;强对偶
-+ 强对偶性成立时，KKT条件为最优点的必要条件；
-+ 凸优化问题中，KKT条件为最优点的充分条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;img src="https://tva1.sinaimg.cn/large/007S8ZIlgy1ghdedehd3bj310i0iujta.jpg" alt="svr.jpg" width="400" height="210" align="bottom" /&gt;
-可以，把损失函数改为 
-$$
-\begin{array}{l}
-\min _{\boldsymbol{w}, b} \frac{1}{2}\|\boldsymbol{w}\|^{2} \\
-\text { s.t. } y_{i}-\left(\boldsymbol{w} \cdot \boldsymbol{x}_{i}+b\right) \leq \varepsilon, i=1,2, \ldots, N
-\end{array}
-$$
-（硬阈值模式，ε-不敏感误差函数）
-+ 目标函数和SVM一致，约束条件不一致，含义与SVM正好相反。SVM是让训练集的点尽量远离自己类别一边的支持向量，SVR是让训练集的点尽量拟合在线性模型$y=w \cdot x+b$，浮动在[-ε,ε]范围内。
-+ SVR相当于带L2正则项的线性回归，把平方损失改成ε-不敏感误差函数
-+ 软阈值模式：给缓冲区ε外的点计算损失。</t>
+- 计算非线性分类问题下，需要利用到SMO方法求解，该方法复杂度高$O(n^2)$
+- 在使用核函数的时候参数假设全靠试，时间成本过高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 构建根节点，存放所有训练数据
+2. 根据划分准则选择一个最优属性a，分割子集$a_{v_1},a_{v_2},..$标记为当前分值最多类别
+3. 若子集非空或子集容量未小于最小数量，递归1.2继续划分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$H(D)=-\sum_{k=1}^{C}p_k log_2 p_k$ 是信息不确定性的度量，C是总类别数
+熵越大，数据的不确定性越高（越不纯）；
+熵越小，数据的不确定性越低（越纯）；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain_ratio$(D,A)=\frac{Gain(D,A)}{IV(A)}$ ，
+其中$IV(A)=\sum_{v=1}^{A^v}\frac{|D^v|}{|D|}log_2 \frac{|D^v|}{|D|}$是属性A的固有属值。
+Gain_ratio(D,A)相当于在信息增益Gain(D,A)基础上除了一个该属性熵总值（相当于归一化）
+倾向：选择取值种类【少】的属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-Gini值：$Gini(D)=1-\sum_{k=1}^{C} p_i^2$  反映了从数据集D中抽取2样本类别不一样的概率
+-Gini系数：Gini_index$(D,A)=\sum_{v=1}^{A^v}\frac{|D^v|}{|D|}Gini(D^v)$为对属性A每个取值v划分的子数据计算$Gini(D^v)$值求平均
+越小越好。（越小表示同类别越多）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Gain(D,A)=H(D)-H(D|A)=H(D)-\sum_{v=1}^{A^v}\frac{|D^v|}{|D|}H(D^v)$ ，其中${A^v}$表示属性A的取值v
+在属性A划分后信息的不确定性减少的程度（纯度提升的比率）越大越好
+ 倾向：选择取值种类【多】的属性。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBDT 的全称是（ Gradient Boosting Decision Tree）梯度提升树
+GBDT使用的决策树是CART回归树（无论是回归任务还是分类任务）
+1. 提升树（BT）：不断学习回归树拟合前一时刻的【残差】，最后等于所有回归树结果之和。
+2. 梯度提升树（GBDT）：利用最速下降的近似方法，利用损失函数的【负梯度】作为提升树算法中的【残差】的近似值。（平方损失的【负梯度】= 【残差】，其他损失函数负梯度≈残差）
+3. 具体步骤：
+(1).初始化弱学习器，梯度下降训练;
+(2).对每个样本计算【负梯度】并将其作为该样本新值;
+(3).建立一棵新的树拟合新样本（回归问题根据最小均方差划分结点;
+(4).迭代(2)(3)过程M次;
+(5).最终强学习器$f(x)=f_M(x)=f_0(x)+\eta \sum_M \sum_i Res_{im}I(x\in R_{im}) $属于全部m棵树的$R_i$结点的样本x的预测结果残差$Res_{im}$之和</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2464,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4778FA9-EECD-D14E-A1D7-3A5640976DFD}">
   <dimension ref="A1:C353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2488,10 +2503,10 @@
     </row>
     <row r="2" spans="1:3" ht="89" customHeight="1" thickTop="1">
       <c r="A2" s="13" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C2" s="15">
         <v>2</v>
@@ -2499,10 +2514,10 @@
     </row>
     <row r="3" spans="1:3" ht="305" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C3" s="15">
         <v>2</v>
@@ -2510,10 +2525,10 @@
     </row>
     <row r="4" spans="1:3" ht="147" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C4" s="15">
         <v>2</v>
@@ -2521,10 +2536,10 @@
     </row>
     <row r="5" spans="1:3" ht="147" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C5" s="15">
         <v>2</v>
@@ -2532,10 +2547,10 @@
     </row>
     <row r="6" spans="1:3" ht="147" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C6" s="15">
         <v>2</v>
@@ -2546,7 +2561,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C7" s="15">
         <v>2</v>
@@ -2557,7 +2572,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C8" s="15">
         <v>2</v>
@@ -2568,7 +2583,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C9" s="15">
         <v>2</v>
@@ -2579,7 +2594,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C10" s="15">
         <v>2</v>
@@ -2590,7 +2605,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C11" s="15">
         <v>2</v>
@@ -2601,7 +2616,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C12" s="15">
         <v>2</v>
@@ -2612,7 +2627,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C13" s="15">
         <v>2</v>
@@ -2620,10 +2635,10 @@
     </row>
     <row r="14" spans="1:3" ht="238">
       <c r="A14" s="13" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
@@ -2634,7 +2649,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C15" s="15">
         <v>2</v>
@@ -2645,7 +2660,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
@@ -2653,10 +2668,10 @@
     </row>
     <row r="17" spans="1:3" ht="221">
       <c r="A17" s="12" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C17" s="15">
         <v>2</v>
@@ -2664,10 +2679,10 @@
     </row>
     <row r="18" spans="1:3" ht="409" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C18" s="15">
         <v>2</v>
@@ -2678,7 +2693,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C19" s="15">
         <v>2</v>
@@ -2689,7 +2704,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C20" s="15">
         <v>2</v>
@@ -2700,7 +2715,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C21" s="15">
         <v>2</v>
@@ -2711,7 +2726,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C22" s="15">
         <v>2</v>
@@ -2733,7 +2748,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C24" s="15">
         <v>2</v>
@@ -2744,7 +2759,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C25" s="15">
         <v>2</v>
@@ -2777,7 +2792,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C28" s="15">
         <v>2</v>
@@ -2799,7 +2814,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C30" s="15">
         <v>2</v>
@@ -2840,10 +2855,10 @@
     </row>
     <row r="34" spans="1:3" ht="356">
       <c r="A34" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C34" s="15">
         <v>2</v>
@@ -2854,7 +2869,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C35" s="15">
         <v>2</v>
@@ -2862,10 +2877,10 @@
     </row>
     <row r="36" spans="1:3" ht="51">
       <c r="A36" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C36" s="15"/>
     </row>
@@ -2874,7 +2889,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C37" s="15">
         <v>2</v>
@@ -2896,7 +2911,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C39" s="15">
         <v>2</v>
@@ -2904,10 +2919,10 @@
     </row>
     <row r="40" spans="1:3" ht="136">
       <c r="A40" s="13" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C40" s="15">
         <v>2</v>
@@ -2915,7 +2930,7 @@
     </row>
     <row r="41" spans="1:3" ht="51">
       <c r="A41" s="13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
@@ -2926,10 +2941,10 @@
     </row>
     <row r="42" spans="1:3" ht="187">
       <c r="A42" s="13" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C42" s="15">
         <v>2</v>
@@ -2937,10 +2952,10 @@
     </row>
     <row r="43" spans="1:3" ht="306">
       <c r="A43" s="13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C43" s="15">
         <v>2</v>
@@ -2948,10 +2963,10 @@
     </row>
     <row r="44" spans="1:3" ht="409" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C44" s="15"/>
     </row>
@@ -2960,7 +2975,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C45" s="15">
         <v>2</v>
@@ -2982,7 +2997,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C47" s="15">
         <v>2</v>
@@ -2990,10 +3005,10 @@
     </row>
     <row r="48" spans="1:3" ht="153">
       <c r="A48" s="12" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C48" s="15"/>
     </row>
@@ -3021,10 +3036,10 @@
     </row>
     <row r="51" spans="1:3" ht="289">
       <c r="A51" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C51" s="15">
         <v>2</v>
@@ -3068,7 +3083,7 @@
         <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="C55" s="15">
         <v>2</v>
@@ -3079,7 +3094,7 @@
         <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="15">
         <v>2</v>
@@ -3087,10 +3102,10 @@
     </row>
     <row r="57" spans="1:3" ht="51">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="C57" s="15">
         <v>2</v>
@@ -3098,10 +3113,10 @@
     </row>
     <row r="58" spans="1:3" ht="51">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="15">
         <v>2</v>
@@ -3109,10 +3124,10 @@
     </row>
     <row r="59" spans="1:3" ht="102">
       <c r="A59" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="15">
         <v>2</v>
@@ -3120,10 +3135,10 @@
     </row>
     <row r="60" spans="1:3" ht="119">
       <c r="A60" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="15">
         <v>2</v>
@@ -3131,10 +3146,10 @@
     </row>
     <row r="61" spans="1:3" ht="51">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="C61" s="15">
         <v>2</v>
@@ -3142,43 +3157,43 @@
     </row>
     <row r="62" spans="1:3" ht="51">
       <c r="A62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="51">
+      <c r="A63" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="68">
+      <c r="A64" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="85">
+      <c r="A65" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="34">
-      <c r="A63" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="34">
-      <c r="A64" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="68">
-      <c r="A65" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="B65" s="1" t="s">
-        <v>88</v>
+        <v>285</v>
       </c>
       <c r="C65" s="15">
         <v>2</v>
@@ -3186,10 +3201,10 @@
     </row>
     <row r="66" spans="1:3" ht="85">
       <c r="A66" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C66" s="15">
         <v>2</v>
@@ -3197,10 +3212,10 @@
     </row>
     <row r="67" spans="1:3" ht="119">
       <c r="A67" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C67" s="15">
         <v>2</v>
@@ -3208,10 +3223,10 @@
     </row>
     <row r="68" spans="1:3" ht="136">
       <c r="A68" s="14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C68" s="15">
         <v>2</v>
@@ -3219,10 +3234,10 @@
     </row>
     <row r="69" spans="1:3" ht="204">
       <c r="A69" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C69" s="15">
         <v>2</v>
@@ -3230,10 +3245,10 @@
     </row>
     <row r="70" spans="1:3" ht="51">
       <c r="A70" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C70" s="15">
         <v>2</v>
@@ -3241,10 +3256,10 @@
     </row>
     <row r="71" spans="1:3" ht="221">
       <c r="A71" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C71" s="15">
         <v>2</v>
@@ -3252,10 +3267,10 @@
     </row>
     <row r="72" spans="1:3" ht="153">
       <c r="A72" s="14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C72" s="15">
         <v>2</v>
@@ -3263,10 +3278,10 @@
     </row>
     <row r="73" spans="1:3" ht="68">
       <c r="A73" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C73" s="15">
         <v>2</v>
@@ -3274,10 +3289,10 @@
     </row>
     <row r="74" spans="1:3" ht="34">
       <c r="A74" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C74" s="15">
         <v>2</v>
@@ -3285,10 +3300,10 @@
     </row>
     <row r="75" spans="1:3" ht="51">
       <c r="A75" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C75" s="15">
         <v>2</v>
@@ -3296,10 +3311,10 @@
     </row>
     <row r="76" spans="1:3" ht="136">
       <c r="A76" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C76" s="15">
         <v>2</v>
@@ -3307,10 +3322,10 @@
     </row>
     <row r="77" spans="1:3" ht="26">
       <c r="A77" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C77" s="15">
         <v>2</v>
@@ -3318,10 +3333,10 @@
     </row>
     <row r="78" spans="1:3" ht="34">
       <c r="A78" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C78" s="15">
         <v>2</v>
@@ -3329,10 +3344,10 @@
     </row>
     <row r="79" spans="1:3" ht="34">
       <c r="A79" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C79" s="15">
         <v>2</v>
@@ -3340,10 +3355,10 @@
     </row>
     <row r="80" spans="1:3" ht="170">
       <c r="A80" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C80" s="15">
         <v>2</v>
@@ -3351,10 +3366,10 @@
     </row>
     <row r="81" spans="1:3" ht="136">
       <c r="A81" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C81" s="15">
         <v>2</v>
@@ -3362,10 +3377,10 @@
     </row>
     <row r="82" spans="1:3" ht="119">
       <c r="A82" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C82" s="15">
         <v>2</v>
@@ -3373,10 +3388,10 @@
     </row>
     <row r="83" spans="1:3" ht="85">
       <c r="A83" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C83" s="15">
         <v>2</v>
@@ -3384,10 +3399,10 @@
     </row>
     <row r="84" spans="1:3" ht="187">
       <c r="A84" s="14" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C84" s="15">
         <v>2</v>
@@ -3395,21 +3410,21 @@
     </row>
     <row r="85" spans="1:3" ht="26">
       <c r="A85" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C85" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="153">
+    <row r="86" spans="1:3" ht="204">
       <c r="A86" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>128</v>
+        <v>287</v>
       </c>
       <c r="C86" s="15">
         <v>2</v>
@@ -3417,10 +3432,10 @@
     </row>
     <row r="87" spans="1:3" ht="68">
       <c r="A87" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C87" s="15">
         <v>2</v>
@@ -3428,10 +3443,10 @@
     </row>
     <row r="88" spans="1:3" ht="26">
       <c r="A88" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C88" s="15">
         <v>2</v>
@@ -3439,10 +3454,10 @@
     </row>
     <row r="89" spans="1:3" ht="68">
       <c r="A89" s="14" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C89" s="15">
         <v>2</v>
@@ -3450,10 +3465,10 @@
     </row>
     <row r="90" spans="1:3" ht="34">
       <c r="A90" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C90" s="15">
         <v>2</v>
@@ -3461,10 +3476,10 @@
     </row>
     <row r="91" spans="1:3" ht="68">
       <c r="A91" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C91" s="15">
         <v>2</v>
@@ -3472,10 +3487,10 @@
     </row>
     <row r="92" spans="1:3" ht="68">
       <c r="A92" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C92" s="15">
         <v>2</v>
@@ -3483,10 +3498,10 @@
     </row>
     <row r="93" spans="1:3" ht="26">
       <c r="A93" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C93" s="15">
         <v>2</v>
@@ -3494,10 +3509,10 @@
     </row>
     <row r="94" spans="1:3" ht="170">
       <c r="A94" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C94" s="15">
         <v>2</v>
@@ -3505,10 +3520,10 @@
     </row>
     <row r="95" spans="1:3" ht="170">
       <c r="A95" s="11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C95" s="15">
         <v>2</v>
@@ -3516,10 +3531,10 @@
     </row>
     <row r="96" spans="1:3" ht="221">
       <c r="A96" s="14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C96" s="15">
         <v>2</v>
@@ -3527,10 +3542,10 @@
     </row>
     <row r="97" spans="1:3" ht="68">
       <c r="A97" s="14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C97" s="15">
         <v>2</v>
@@ -3538,10 +3553,10 @@
     </row>
     <row r="98" spans="1:3" ht="323">
       <c r="A98" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C98" s="15">
         <v>2</v>
@@ -3549,10 +3564,10 @@
     </row>
     <row r="99" spans="1:3" ht="306" customHeight="1">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C99" s="15">
         <v>2</v>
@@ -3560,10 +3575,10 @@
     </row>
     <row r="100" spans="1:3" ht="306" customHeight="1">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C100" s="15">
         <v>2</v>
@@ -3571,10 +3586,10 @@
     </row>
     <row r="101" spans="1:3" ht="153">
       <c r="A101" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C101" s="15">
         <v>2</v>
@@ -3582,10 +3597,10 @@
     </row>
     <row r="102" spans="1:3" ht="51">
       <c r="A102" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C102" s="15">
         <v>2</v>
@@ -3593,10 +3608,10 @@
     </row>
     <row r="103" spans="1:3" ht="85">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C103" s="15">
         <v>2</v>
@@ -3604,10 +3619,10 @@
     </row>
     <row r="104" spans="1:3" ht="85">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C104" s="15">
         <v>2</v>
@@ -3615,10 +3630,10 @@
     </row>
     <row r="105" spans="1:3" ht="85">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C105" s="15">
         <v>2</v>
@@ -3626,10 +3641,10 @@
     </row>
     <row r="106" spans="1:3" ht="119">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C106" s="15">
         <v>2</v>
@@ -3637,10 +3652,10 @@
     </row>
     <row r="107" spans="1:3" ht="85">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C107" s="15">
         <v>2</v>
@@ -3648,10 +3663,10 @@
     </row>
     <row r="108" spans="1:3" ht="85">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C108" s="15">
         <v>2</v>
@@ -3659,10 +3674,10 @@
     </row>
     <row r="109" spans="1:3" ht="153">
       <c r="A109" s="13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C109" s="15">
         <v>2</v>
@@ -3670,10 +3685,10 @@
     </row>
     <row r="110" spans="1:3" ht="85">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C110" s="15">
         <v>2</v>
@@ -3681,10 +3696,10 @@
     </row>
     <row r="111" spans="1:3" ht="119">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C111" s="15">
         <v>2</v>
@@ -3692,10 +3707,10 @@
     </row>
     <row r="112" spans="1:3" ht="85">
       <c r="A112" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C112" s="15">
         <v>2</v>
@@ -3703,10 +3718,10 @@
     </row>
     <row r="113" spans="1:3" ht="26">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C113" s="15">
         <v>2</v>
@@ -3714,10 +3729,10 @@
     </row>
     <row r="114" spans="1:3" ht="26">
       <c r="A114" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C114" s="15">
         <v>2</v>
@@ -3725,10 +3740,10 @@
     </row>
     <row r="115" spans="1:3" ht="204">
       <c r="A115" s="13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C115" s="15">
         <v>2</v>
@@ -3736,10 +3751,10 @@
     </row>
     <row r="116" spans="1:3" ht="68">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C116" s="15">
         <v>2</v>
@@ -3747,10 +3762,10 @@
     </row>
     <row r="117" spans="1:3" ht="153">
       <c r="A117" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C117" s="15">
         <v>2</v>
@@ -3758,10 +3773,10 @@
     </row>
     <row r="118" spans="1:3" ht="26">
       <c r="A118" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C118" s="15">
         <v>2</v>
@@ -3769,10 +3784,10 @@
     </row>
     <row r="119" spans="1:3" ht="51">
       <c r="A119" s="12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C119" s="15">
         <v>2</v>
@@ -3780,10 +3795,10 @@
     </row>
     <row r="120" spans="1:3" ht="119">
       <c r="A120" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C120" s="15">
         <v>2</v>
@@ -3791,10 +3806,10 @@
     </row>
     <row r="121" spans="1:3" ht="372">
       <c r="A121" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C121" s="15">
         <v>2</v>
@@ -3802,10 +3817,10 @@
     </row>
     <row r="122" spans="1:3" ht="153">
       <c r="A122" s="13" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C122" s="15">
         <v>2</v>
@@ -3813,10 +3828,10 @@
     </row>
     <row r="123" spans="1:3" ht="34">
       <c r="A123" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C123" s="15">
         <v>2</v>
@@ -3824,10 +3839,10 @@
     </row>
     <row r="124" spans="1:3" ht="68">
       <c r="A124" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C124" s="15">
         <v>2</v>
@@ -3835,10 +3850,10 @@
     </row>
     <row r="125" spans="1:3" ht="221">
       <c r="A125" s="13" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C125" s="15">
         <v>2</v>
@@ -3846,10 +3861,10 @@
     </row>
     <row r="126" spans="1:3" ht="51">
       <c r="A126" s="13" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C126" s="15">
         <v>2</v>
@@ -3857,10 +3872,10 @@
     </row>
     <row r="127" spans="1:3" ht="119">
       <c r="A127" s="13" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C127" s="15">
         <v>2</v>
@@ -3868,10 +3883,10 @@
     </row>
     <row r="128" spans="1:3" ht="238">
       <c r="A128" s="13" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C128" s="15">
         <v>2</v>
@@ -4587,10 +4602,10 @@
     </row>
     <row r="2" spans="1:3" ht="52" thickTop="1">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4598,58 +4613,58 @@
     </row>
     <row r="3" spans="1:3" ht="136">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="102">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="119">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="85">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4762,10 +4777,10 @@
     </row>
     <row r="2" spans="1:3" ht="103" thickTop="1">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
